--- a/Progress-Report.xlsx
+++ b/Progress-Report.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="9500" yWindow="460" windowWidth="23860" windowHeight="17540" activeTab="3"/>
+    <workbookView xWindow="2560" yWindow="460" windowWidth="23860" windowHeight="17540" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="User Interface" sheetId="5" r:id="rId1"/>
@@ -36,10 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="62">
-  <si>
-    <t>DUE DATE</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="60">
   <si>
     <t>DONE</t>
   </si>
@@ -74,9 +71,6 @@
     <t>Project Plan</t>
   </si>
   <si>
-    <t>March 7, 2016</t>
-  </si>
-  <si>
     <t>To be done during Integration II</t>
   </si>
   <si>
@@ -113,12 +107,6 @@
     <t>Registration Validation</t>
   </si>
   <si>
-    <t>March 6, 2016</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
     <t>Fix layout, match design with other pages</t>
   </si>
   <si>
@@ -209,9 +197,6 @@
     <t>Carlo Bautista</t>
   </si>
   <si>
-    <t>Uploaded on gdrive, not yet done</t>
-  </si>
-  <si>
     <t>Ralph Chua</t>
   </si>
   <si>
@@ -222,6 +207,15 @@
   </si>
   <si>
     <t>Few minor edits on diagram, mostly on arrows</t>
+  </si>
+  <si>
+    <t>ITERATION</t>
+  </si>
+  <si>
+    <t>Not yet done testing</t>
+  </si>
+  <si>
+    <t>Still to test</t>
   </si>
 </sst>
 </file>
@@ -323,7 +317,7 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -342,9 +336,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -395,6 +386,12 @@
     </xf>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -402,10 +399,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
     <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="31">
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
+  <dxfs count="33">
     <dxf>
       <font>
         <b val="0"/>
@@ -424,6 +418,31 @@
       </font>
     </dxf>
     <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -450,6 +469,73 @@
       <font>
         <b/>
       </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="13"/>
+        <color theme="4" tint="0.39991454817346722"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="13"/>
+        <color theme="4" tint="0.39991454817346722"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
     </dxf>
     <dxf>
       <font>
@@ -530,87 +616,6 @@
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="13"/>
-        <color theme="4" tint="0.39991454817346722"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="13"/>
-        <color theme="4" tint="0.39991454817346722"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
     </dxf>
     <dxf>
       <font>
@@ -676,10 +681,10 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="Task List" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="Task List" pivot="0" count="4">
-      <tableStyleElement type="wholeTable" dxfId="30"/>
-      <tableStyleElement type="headerRow" dxfId="29"/>
-      <tableStyleElement type="totalRow" dxfId="28"/>
-      <tableStyleElement type="firstColumn" dxfId="27"/>
+      <tableStyleElement type="wholeTable" dxfId="32"/>
+      <tableStyleElement type="headerRow" dxfId="31"/>
+      <tableStyleElement type="totalRow" dxfId="30"/>
+      <tableStyleElement type="firstColumn" dxfId="29"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -694,71 +699,69 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table14" displayName="Table14" ref="B2:H13" totalsRowShown="0" headerRowDxfId="15">
-  <autoFilter ref="B2:H13"/>
-  <tableColumns count="7">
-    <tableColumn id="1" name="PAGE" dataDxfId="14"/>
-    <tableColumn id="5" name="DUE DATE"/>
-    <tableColumn id="6" name="% COMPLETE" dataDxfId="13"/>
-    <tableColumn id="7" name="DONE" dataDxfId="12">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table14" displayName="Table14" ref="B2:G13" totalsRowShown="0" headerRowDxfId="28">
+  <autoFilter ref="B2:G13"/>
+  <tableColumns count="6">
+    <tableColumn id="1" name="PAGE" dataDxfId="27"/>
+    <tableColumn id="6" name="% COMPLETE" dataDxfId="26"/>
+    <tableColumn id="7" name="DONE" dataDxfId="25">
       <calculatedColumnFormula>--(Table14[[#This Row],[% COMPLETE]]&gt;=1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="REMARKS" dataDxfId="11"/>
-    <tableColumn id="3" name="PUSHED" dataDxfId="10"/>
-    <tableColumn id="9" name="PERSON-IN-CHARGE" dataDxfId="9"/>
+    <tableColumn id="8" name="REMARKS" dataDxfId="24"/>
+    <tableColumn id="3" name="PUSHED" dataDxfId="23"/>
+    <tableColumn id="9" name="PERSON-IN-CHARGE" dataDxfId="22"/>
   </tableColumns>
   <tableStyleInfo name="Task List" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B2:I21" totalsRowShown="0" headerRowDxfId="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B2:I21" totalsRowShown="0" headerRowDxfId="21">
   <autoFilter ref="B2:I21"/>
   <tableColumns count="8">
-    <tableColumn id="1" name="FUNCTIONS" dataDxfId="7"/>
-    <tableColumn id="10" name="USER STORY #" dataDxfId="6"/>
-    <tableColumn id="5" name="DUE DATE"/>
-    <tableColumn id="6" name="% COMPLETE" dataDxfId="5"/>
-    <tableColumn id="7" name="DONE" dataDxfId="4">
+    <tableColumn id="1" name="FUNCTIONS" dataDxfId="20"/>
+    <tableColumn id="10" name="USER STORY #" dataDxfId="19"/>
+    <tableColumn id="5" name="ITERATION" dataDxfId="18"/>
+    <tableColumn id="6" name="% COMPLETE" dataDxfId="17"/>
+    <tableColumn id="7" name="DONE" dataDxfId="16">
       <calculatedColumnFormula>--(Table1[[#This Row],[% COMPLETE]]&gt;=1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="REMARKS" dataDxfId="3"/>
-    <tableColumn id="3" name="PUSHED" dataDxfId="2"/>
-    <tableColumn id="11" name="PERSON-IN-CHARGE" dataDxfId="1"/>
+    <tableColumn id="8" name="REMARKS" dataDxfId="15"/>
+    <tableColumn id="3" name="PUSHED" dataDxfId="14"/>
+    <tableColumn id="11" name="PERSON-IN-CHARGE" dataDxfId="13"/>
   </tableColumns>
   <tableStyleInfo name="Task List" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="B2:G21" totalsRowShown="0" headerRowDxfId="26">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="B2:G21" totalsRowShown="0" headerRowDxfId="12">
   <autoFilter ref="B2:G21"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="USER STORY" dataDxfId="0"/>
-    <tableColumn id="5" name="DUE DATE"/>
-    <tableColumn id="6" name="% COMPLETE" dataDxfId="25"/>
-    <tableColumn id="7" name="DONE" dataDxfId="24">
+    <tableColumn id="1" name="USER STORY" dataDxfId="11"/>
+    <tableColumn id="5" name="ITERATION" dataDxfId="10"/>
+    <tableColumn id="6" name="% COMPLETE" dataDxfId="9"/>
+    <tableColumn id="7" name="DONE" dataDxfId="8">
       <calculatedColumnFormula>--(Table13[[#This Row],[% COMPLETE]]&gt;=1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="REMARKS" dataDxfId="23"/>
-    <tableColumn id="3" name="PERSON-IN-CHARGE" dataDxfId="22"/>
+    <tableColumn id="8" name="REMARKS" dataDxfId="7"/>
+    <tableColumn id="3" name="PERSON-IN-CHARGE" dataDxfId="6"/>
   </tableColumns>
   <tableStyleInfo name="Task List" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table145" displayName="Table145" ref="B2:G13" totalsRowShown="0" headerRowDxfId="21">
-  <autoFilter ref="B2:G13"/>
-  <tableColumns count="6">
-    <tableColumn id="1" name="PAPER" dataDxfId="20"/>
-    <tableColumn id="5" name="DUE DATE"/>
-    <tableColumn id="6" name="% COMPLETE" dataDxfId="19"/>
-    <tableColumn id="7" name="DONE" dataDxfId="18">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table145" displayName="Table145" ref="B2:F13" totalsRowShown="0" headerRowDxfId="5">
+  <autoFilter ref="B2:F13"/>
+  <tableColumns count="5">
+    <tableColumn id="1" name="PAPER" dataDxfId="4"/>
+    <tableColumn id="6" name="% COMPLETE" dataDxfId="3"/>
+    <tableColumn id="7" name="DONE" dataDxfId="2">
       <calculatedColumnFormula>--(Table145[[#This Row],[% COMPLETE]]&gt;=1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="REMARKS" dataDxfId="17"/>
-    <tableColumn id="9" name="PUSHED" dataDxfId="16"/>
+    <tableColumn id="8" name="REMARKS" dataDxfId="1"/>
+    <tableColumn id="9" name="PUSHED" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="Task List" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -971,10 +974,10 @@
     <tabColor theme="4"/>
     <pageSetUpPr autoPageBreaks="0" fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:H29"/>
+  <dimension ref="B1:G29"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="14" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -982,218 +985,205 @@
     <col min="1" max="1" width="2.42578125" style="1" customWidth="1"/>
     <col min="2" max="2" width="19.7109375" style="2" customWidth="1"/>
     <col min="3" max="4" width="14.7109375" style="3" customWidth="1"/>
-    <col min="5" max="5" width="13.5703125" style="9" customWidth="1"/>
-    <col min="6" max="6" width="35" style="4" customWidth="1"/>
+    <col min="5" max="5" width="37.42578125" style="8" customWidth="1"/>
+    <col min="6" max="6" width="15.85546875" style="4" customWidth="1"/>
     <col min="7" max="7" width="16.5703125" style="4" customWidth="1"/>
     <col min="8" max="8" width="15.5703125" style="1" customWidth="1"/>
     <col min="9" max="16384" width="8.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" s="11" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="12" t="s">
+    <row r="1" spans="2:7" s="10" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B1" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="13"/>
+    </row>
+    <row r="2" spans="2:7" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="14"/>
-    </row>
-    <row r="2" spans="2:8" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="15" t="s">
-        <v>1</v>
-      </c>
       <c r="F2" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="G2" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="15" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="D3" s="6">
+        <f>--(Table14[[#This Row],[% COMPLETE]]&gt;=1)</f>
+        <v>0</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="2:7" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="D4" s="6">
+        <f>--(Table14[[#This Row],[% COMPLETE]]&gt;=1)</f>
+        <v>0</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" s="1"/>
+    </row>
+    <row r="5" spans="2:7" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="8">
+        <v>0</v>
+      </c>
+      <c r="D5" s="9">
+        <f>--(Table14[[#This Row],[% COMPLETE]]&gt;=1)</f>
+        <v>0</v>
+      </c>
+      <c r="E5" s="2"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+    </row>
+    <row r="6" spans="2:7" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="8">
+        <v>0.75</v>
+      </c>
+      <c r="D6" s="9">
+        <f>--(Table14[[#This Row],[% COMPLETE]]&gt;=1)</f>
+        <v>0</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="16" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="3" spans="2:8" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" s="6" t="s">
+      <c r="G6" s="1"/>
+    </row>
+    <row r="7" spans="2:7" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="8">
+        <v>0</v>
+      </c>
+      <c r="D7" s="9">
+        <f>--(Table14[[#This Row],[% COMPLETE]]&gt;=1)</f>
+        <v>0</v>
+      </c>
+      <c r="E7" s="2"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+    </row>
+    <row r="8" spans="2:7" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="8">
+        <v>0</v>
+      </c>
+      <c r="D8" s="9">
+        <f>--(Table14[[#This Row],[% COMPLETE]]&gt;=1)</f>
+        <v>0</v>
+      </c>
+      <c r="E8" s="2"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+    </row>
+    <row r="9" spans="2:7" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="8">
+        <v>0.75</v>
+      </c>
+      <c r="D9" s="9">
+        <f>--(Table14[[#This Row],[% COMPLETE]]&gt;=1)</f>
+        <v>0</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F9" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="8">
-        <v>0.75</v>
-      </c>
-      <c r="E3" s="7">
+      <c r="G9" s="1"/>
+    </row>
+    <row r="10" spans="2:7" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C10" s="8"/>
+      <c r="D10" s="9">
         <f>--(Table14[[#This Row],[% COMPLETE]]&gt;=1)</f>
         <v>0</v>
       </c>
-      <c r="F3" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="4" spans="2:8" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D4" s="8">
-        <v>0.5</v>
-      </c>
-      <c r="E4" s="7">
+      <c r="E10" s="2"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+    </row>
+    <row r="11" spans="2:7" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C11" s="8"/>
+      <c r="D11" s="9">
         <f>--(Table14[[#This Row],[% COMPLETE]]&gt;=1)</f>
         <v>0</v>
       </c>
-      <c r="F4" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="5" spans="2:8" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D5" s="9">
-        <v>0</v>
-      </c>
-      <c r="E5" s="10">
+      <c r="E11" s="2"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+    </row>
+    <row r="12" spans="2:7" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C12" s="8"/>
+      <c r="D12" s="9">
         <f>--(Table14[[#This Row],[% COMPLETE]]&gt;=1)</f>
         <v>0</v>
       </c>
-      <c r="F5" s="2"/>
-      <c r="G5" s="1"/>
-    </row>
-    <row r="6" spans="2:8" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" s="9">
-        <v>0.75</v>
-      </c>
-      <c r="E6" s="10">
+      <c r="E12" s="2"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+    </row>
+    <row r="13" spans="2:7" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C13" s="8"/>
+      <c r="D13" s="9">
         <f>--(Table14[[#This Row],[% COMPLETE]]&gt;=1)</f>
         <v>0</v>
       </c>
-      <c r="F6" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="2:8" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" s="9">
-        <v>0</v>
-      </c>
-      <c r="E7" s="10">
-        <f>--(Table14[[#This Row],[% COMPLETE]]&gt;=1)</f>
-        <v>0</v>
-      </c>
-      <c r="F7" s="2"/>
-      <c r="G7" s="1"/>
-    </row>
-    <row r="8" spans="2:8" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8" s="9">
-        <v>0</v>
-      </c>
-      <c r="E8" s="10">
-        <f>--(Table14[[#This Row],[% COMPLETE]]&gt;=1)</f>
-        <v>0</v>
-      </c>
-      <c r="F8" s="2"/>
-      <c r="G8" s="1"/>
-    </row>
-    <row r="9" spans="2:8" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" s="9">
-        <v>0.75</v>
-      </c>
-      <c r="E9" s="10">
-        <f>--(Table14[[#This Row],[% COMPLETE]]&gt;=1)</f>
-        <v>0</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="10" spans="2:8" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D10" s="9"/>
-      <c r="E10" s="10">
-        <f>--(Table14[[#This Row],[% COMPLETE]]&gt;=1)</f>
-        <v>0</v>
-      </c>
-      <c r="F10" s="2"/>
-      <c r="G10" s="1"/>
-    </row>
-    <row r="11" spans="2:8" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D11" s="9"/>
-      <c r="E11" s="10">
-        <f>--(Table14[[#This Row],[% COMPLETE]]&gt;=1)</f>
-        <v>0</v>
-      </c>
-      <c r="F11" s="2"/>
-      <c r="G11" s="1"/>
-    </row>
-    <row r="12" spans="2:8" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D12" s="9"/>
-      <c r="E12" s="10">
-        <f>--(Table14[[#This Row],[% COMPLETE]]&gt;=1)</f>
-        <v>0</v>
-      </c>
-      <c r="F12" s="2"/>
-      <c r="G12" s="1"/>
-    </row>
-    <row r="13" spans="2:8" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D13" s="9"/>
-      <c r="E13" s="10">
-        <f>--(Table14[[#This Row],[% COMPLETE]]&gt;=1)</f>
-        <v>0</v>
-      </c>
-      <c r="F13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="1"/>
       <c r="G13" s="1"/>
     </row>
-    <row r="14" spans="2:8" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="15" spans="2:8" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="16" spans="2:8" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="14" spans="2:7" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="15" spans="2:7" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="16" spans="2:7" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="17" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="18" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="19" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1208,7 +1198,7 @@
     <row r="28" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="29" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <conditionalFormatting sqref="D3:D13">
+  <conditionalFormatting sqref="C3:C13">
     <cfRule type="dataBar" priority="1">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -1223,7 +1213,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" errorTitle="This is not a listed value." error="Please pick a value in the list." sqref="D3:D13">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" errorTitle="This is not a listed value." error="Please pick a value in the list." sqref="C3:C13">
       <formula1>"0%,25%,50%,75%,100%"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1254,7 +1244,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D3:D13</xm:sqref>
+          <xm:sqref>C3:C13</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="2" id="{6BB970AC-1355-3248-ABF8-DE74EF55ACC9}">
@@ -1273,7 +1263,7 @@
               <x14:cfIcon iconSet="4TrafficLights" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>E3:E13</xm:sqref>
+          <xm:sqref>D3:D13</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -1289,17 +1279,17 @@
   </sheetPr>
   <dimension ref="B1:I21"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A9" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="33" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2.42578125" style="1" customWidth="1"/>
     <col min="2" max="2" width="19.7109375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="10.42578125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="3" customWidth="1"/>
-    <col min="5" max="5" width="13.5703125" style="9" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="9" style="3" customWidth="1"/>
+    <col min="5" max="5" width="13.5703125" style="8" customWidth="1"/>
     <col min="6" max="6" width="7" style="4" customWidth="1"/>
     <col min="7" max="7" width="32.85546875" style="4" customWidth="1"/>
     <col min="8" max="8" width="10.7109375" style="1" customWidth="1"/>
@@ -1307,119 +1297,119 @@
     <col min="10" max="16384" width="8.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" s="11" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="12" t="s">
+    <row r="1" spans="2:9" s="10" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B1" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="13"/>
+    </row>
+    <row r="2" spans="2:9" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="G2" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="14"/>
-    </row>
-    <row r="2" spans="2:9" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="21" t="s">
+      <c r="H2" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" s="15" t="s">
         <v>30</v>
-      </c>
-      <c r="C2" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="D2" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="F2" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="G2" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="H2" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="I2" s="16" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="3" spans="2:9" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="C3" s="19">
-        <v>1</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="8">
-        <v>1</v>
-      </c>
-      <c r="F3" s="7">
+        <v>27</v>
+      </c>
+      <c r="C3" s="18">
+        <v>1</v>
+      </c>
+      <c r="D3" s="23">
+        <v>1</v>
+      </c>
+      <c r="E3" s="7">
+        <v>1</v>
+      </c>
+      <c r="F3" s="6">
         <f>--(Table1[[#This Row],[% COMPLETE]]&gt;=1)</f>
         <v>1</v>
       </c>
       <c r="G3" s="5"/>
       <c r="I3" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="2:9" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C4" s="19">
-        <v>2</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="8">
-        <v>1</v>
-      </c>
-      <c r="F4" s="7">
+        <v>29</v>
+      </c>
+      <c r="C4" s="18">
+        <v>2</v>
+      </c>
+      <c r="D4" s="23">
+        <v>1</v>
+      </c>
+      <c r="E4" s="7">
+        <v>1</v>
+      </c>
+      <c r="F4" s="6">
         <f>--(Table1[[#This Row],[% COMPLETE]]&gt;=1)</f>
         <v>1</v>
       </c>
       <c r="G4" s="5"/>
       <c r="I4" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="2:9" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C5" s="19">
+        <v>31</v>
+      </c>
+      <c r="C5" s="18">
         <v>3</v>
       </c>
-      <c r="D5" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" s="9">
-        <v>0</v>
-      </c>
-      <c r="F5" s="10">
+      <c r="D5" s="23">
+        <v>1</v>
+      </c>
+      <c r="E5" s="8">
+        <v>0</v>
+      </c>
+      <c r="F5" s="9">
         <f>--(Table1[[#This Row],[% COMPLETE]]&gt;=1)</f>
         <v>0</v>
       </c>
       <c r="G5" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" s="1" t="s">
         <v>51</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="6" spans="2:9" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C6" s="20">
+        <v>34</v>
+      </c>
+      <c r="C6" s="19">
         <v>4</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F6" s="10">
+      <c r="D6" s="24">
+        <v>2</v>
+      </c>
+      <c r="F6" s="9">
         <f>--(Table1[[#This Row],[% COMPLETE]]&gt;=1)</f>
         <v>0</v>
       </c>
@@ -1427,15 +1417,15 @@
     </row>
     <row r="7" spans="2:9" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C7" s="20">
+        <v>32</v>
+      </c>
+      <c r="C7" s="19">
         <v>5</v>
       </c>
-      <c r="D7" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F7" s="10">
+      <c r="D7" s="24">
+        <v>2</v>
+      </c>
+      <c r="F7" s="9">
         <f>--(Table1[[#This Row],[% COMPLETE]]&gt;=1)</f>
         <v>0</v>
       </c>
@@ -1443,15 +1433,15 @@
     </row>
     <row r="8" spans="2:9" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C8" s="20">
+        <v>35</v>
+      </c>
+      <c r="C8" s="19">
         <v>6</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F8" s="10">
+      <c r="D8" s="24">
+        <v>2</v>
+      </c>
+      <c r="F8" s="9">
         <f>--(Table1[[#This Row],[% COMPLETE]]&gt;=1)</f>
         <v>0</v>
       </c>
@@ -1459,15 +1449,15 @@
     </row>
     <row r="9" spans="2:9" ht="43" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C9" s="20">
+        <v>45</v>
+      </c>
+      <c r="C9" s="19">
         <v>7</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F9" s="10">
+      <c r="D9" s="24">
+        <v>2</v>
+      </c>
+      <c r="F9" s="9">
         <f>--(Table1[[#This Row],[% COMPLETE]]&gt;=1)</f>
         <v>0</v>
       </c>
@@ -1475,15 +1465,15 @@
     </row>
     <row r="10" spans="2:9" ht="37" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C10" s="20">
+        <v>33</v>
+      </c>
+      <c r="C10" s="19">
         <v>8</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F10" s="10">
+      <c r="D10" s="24">
+        <v>2</v>
+      </c>
+      <c r="F10" s="9">
         <f>--(Table1[[#This Row],[% COMPLETE]]&gt;=1)</f>
         <v>0</v>
       </c>
@@ -1491,15 +1481,15 @@
     </row>
     <row r="11" spans="2:9" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C11" s="20">
+        <v>36</v>
+      </c>
+      <c r="C11" s="19">
         <v>9</v>
       </c>
-      <c r="D11" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F11" s="10">
+      <c r="D11" s="24">
+        <v>2</v>
+      </c>
+      <c r="F11" s="9">
         <f>--(Table1[[#This Row],[% COMPLETE]]&gt;=1)</f>
         <v>0</v>
       </c>
@@ -1507,15 +1497,15 @@
     </row>
     <row r="12" spans="2:9" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C12" s="20">
+        <v>46</v>
+      </c>
+      <c r="C12" s="19">
         <v>10</v>
       </c>
-      <c r="D12" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F12" s="10">
+      <c r="D12" s="24">
+        <v>2</v>
+      </c>
+      <c r="F12" s="9">
         <f>--(Table1[[#This Row],[% COMPLETE]]&gt;=1)</f>
         <v>0</v>
       </c>
@@ -1523,15 +1513,15 @@
     </row>
     <row r="13" spans="2:9" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C13" s="20">
+        <v>37</v>
+      </c>
+      <c r="C13" s="19">
         <v>11</v>
       </c>
-      <c r="D13" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F13" s="10">
+      <c r="D13" s="24">
+        <v>2</v>
+      </c>
+      <c r="F13" s="9">
         <f>--(Table1[[#This Row],[% COMPLETE]]&gt;=1)</f>
         <v>0</v>
       </c>
@@ -1539,15 +1529,15 @@
     </row>
     <row r="14" spans="2:9" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C14" s="20">
+        <v>38</v>
+      </c>
+      <c r="C14" s="19">
         <v>12</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F14" s="10">
+      <c r="D14" s="24">
+        <v>2</v>
+      </c>
+      <c r="F14" s="9">
         <f>--(Table1[[#This Row],[% COMPLETE]]&gt;=1)</f>
         <v>0</v>
       </c>
@@ -1555,15 +1545,15 @@
     </row>
     <row r="15" spans="2:9" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C15" s="20">
+        <v>39</v>
+      </c>
+      <c r="C15" s="19">
         <v>13</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F15" s="10">
+      <c r="D15" s="24">
+        <v>2</v>
+      </c>
+      <c r="F15" s="9">
         <f>--(Table1[[#This Row],[% COMPLETE]]&gt;=1)</f>
         <v>0</v>
       </c>
@@ -1571,15 +1561,15 @@
     </row>
     <row r="16" spans="2:9" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C16" s="22">
+        <v>40</v>
+      </c>
+      <c r="C16" s="21">
         <v>14</v>
       </c>
-      <c r="D16" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F16" s="10">
+      <c r="D16" s="24">
+        <v>2</v>
+      </c>
+      <c r="F16" s="9">
         <f>--(Table1[[#This Row],[% COMPLETE]]&gt;=1)</f>
         <v>0</v>
       </c>
@@ -1587,37 +1577,37 @@
     </row>
     <row r="17" spans="2:9" ht="31" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C17" s="22">
+        <v>41</v>
+      </c>
+      <c r="C17" s="21">
         <v>15</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E17" s="9">
-        <v>0</v>
-      </c>
-      <c r="F17" s="10">
+      <c r="D17" s="24">
+        <v>1</v>
+      </c>
+      <c r="E17" s="8">
+        <v>0</v>
+      </c>
+      <c r="F17" s="9">
         <f>--(Table1[[#This Row],[% COMPLETE]]&gt;=1)</f>
         <v>0</v>
       </c>
       <c r="G17" s="2"/>
       <c r="I17" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="18" spans="2:9" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C18" s="22">
+        <v>42</v>
+      </c>
+      <c r="C18" s="21">
         <v>16</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F18" s="10">
+      <c r="D18" s="24">
+        <v>2</v>
+      </c>
+      <c r="F18" s="9">
         <f>--(Table1[[#This Row],[% COMPLETE]]&gt;=1)</f>
         <v>0</v>
       </c>
@@ -1625,15 +1615,15 @@
     </row>
     <row r="19" spans="2:9" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C19" s="22">
+        <v>43</v>
+      </c>
+      <c r="C19" s="21">
         <v>17</v>
       </c>
-      <c r="D19" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F19" s="10">
+      <c r="D19" s="24">
+        <v>2</v>
+      </c>
+      <c r="F19" s="9">
         <f>--(Table1[[#This Row],[% COMPLETE]]&gt;=1)</f>
         <v>0</v>
       </c>
@@ -1641,48 +1631,48 @@
     </row>
     <row r="20" spans="2:9" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C20" s="22">
+        <v>28</v>
+      </c>
+      <c r="C20" s="21">
         <v>18</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E20" s="9">
+      <c r="D20" s="24">
+        <v>1</v>
+      </c>
+      <c r="E20" s="8">
         <v>0.75</v>
       </c>
-      <c r="F20" s="10">
+      <c r="F20" s="9">
         <f>--(Table1[[#This Row],[% COMPLETE]]&gt;=1)</f>
         <v>0</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="21" spans="2:9" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C21" s="22">
+        <v>44</v>
+      </c>
+      <c r="C21" s="21">
         <v>19</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E21" s="9">
-        <v>0</v>
-      </c>
-      <c r="F21" s="10">
+      <c r="D21" s="24">
+        <v>1</v>
+      </c>
+      <c r="E21" s="8">
+        <v>0</v>
+      </c>
+      <c r="F21" s="9">
         <f>--(Table1[[#This Row],[% COMPLETE]]&gt;=1)</f>
         <v>0</v>
       </c>
       <c r="G21" s="2"/>
       <c r="I21" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -1768,115 +1758,118 @@
   <dimension ref="B1:G21"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="33" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2.42578125" style="1" customWidth="1"/>
     <col min="2" max="2" width="9.42578125" style="2" customWidth="1"/>
-    <col min="3" max="4" width="14.7109375" style="3" customWidth="1"/>
-    <col min="5" max="5" width="6.5703125" style="9" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="12.5703125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="6.5703125" style="8" customWidth="1"/>
     <col min="6" max="6" width="28.28515625" style="4" customWidth="1"/>
     <col min="7" max="7" width="18.5703125" style="4" customWidth="1"/>
     <col min="8" max="8" width="2.42578125" style="1" customWidth="1"/>
     <col min="9" max="16384" width="8.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" s="11" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="12" t="s">
+    <row r="1" spans="2:7" s="10" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B1" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="13"/>
+    </row>
+    <row r="2" spans="2:7" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="14"/>
-    </row>
-    <row r="2" spans="2:7" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="F2" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="G2" s="16" t="s">
-        <v>34</v>
+      <c r="G2" s="15" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="2:7" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="19">
-        <v>1</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="8">
-        <v>0</v>
-      </c>
-      <c r="E3" s="7">
+      <c r="B3" s="18">
+        <v>1</v>
+      </c>
+      <c r="C3" s="23">
+        <v>1</v>
+      </c>
+      <c r="D3" s="7">
+        <v>0</v>
+      </c>
+      <c r="E3" s="6">
         <f>--(Table13[[#This Row],[% COMPLETE]]&gt;=1)</f>
         <v>0</v>
       </c>
       <c r="F3" s="5"/>
       <c r="G3" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="18">
+        <v>2</v>
+      </c>
+      <c r="C4" s="23">
+        <v>1</v>
+      </c>
+      <c r="D4" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="E4" s="6">
+        <f>--(Table13[[#This Row],[% COMPLETE]]&gt;=1)</f>
+        <v>0</v>
+      </c>
+      <c r="F4" s="5" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="4" spans="2:7" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="19">
-        <v>2</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="8">
-        <v>0</v>
-      </c>
-      <c r="E4" s="7">
-        <f>--(Table13[[#This Row],[% COMPLETE]]&gt;=1)</f>
-        <v>0</v>
-      </c>
-      <c r="F4" s="5"/>
       <c r="G4" s="1" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="2:7" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="19">
+      <c r="B5" s="18">
         <v>3</v>
       </c>
-      <c r="C5" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="9">
-        <v>0</v>
-      </c>
-      <c r="E5" s="10">
+      <c r="C5" s="23">
+        <v>1</v>
+      </c>
+      <c r="D5" s="8">
+        <v>0</v>
+      </c>
+      <c r="E5" s="9">
         <f>--(Table13[[#This Row],[% COMPLETE]]&gt;=1)</f>
         <v>0</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="1" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="2:7" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="20">
+      <c r="B6" s="19">
         <v>4</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" s="9"/>
-      <c r="E6" s="10">
+      <c r="C6" s="24">
+        <v>2</v>
+      </c>
+      <c r="D6" s="8"/>
+      <c r="E6" s="9">
         <f>--(Table13[[#This Row],[% COMPLETE]]&gt;=1)</f>
         <v>0</v>
       </c>
@@ -1884,14 +1877,14 @@
       <c r="G6" s="1"/>
     </row>
     <row r="7" spans="2:7" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="20">
+      <c r="B7" s="19">
         <v>5</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" s="9"/>
-      <c r="E7" s="10">
+      <c r="C7" s="24">
+        <v>2</v>
+      </c>
+      <c r="D7" s="8"/>
+      <c r="E7" s="9">
         <f>--(Table13[[#This Row],[% COMPLETE]]&gt;=1)</f>
         <v>0</v>
       </c>
@@ -1899,14 +1892,14 @@
       <c r="G7" s="1"/>
     </row>
     <row r="8" spans="2:7" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="20">
+      <c r="B8" s="19">
         <v>6</v>
       </c>
-      <c r="C8" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8" s="9"/>
-      <c r="E8" s="10">
+      <c r="C8" s="24">
+        <v>2</v>
+      </c>
+      <c r="D8" s="8"/>
+      <c r="E8" s="9">
         <f>--(Table13[[#This Row],[% COMPLETE]]&gt;=1)</f>
         <v>0</v>
       </c>
@@ -1914,14 +1907,14 @@
       <c r="G8" s="1"/>
     </row>
     <row r="9" spans="2:7" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="20">
+      <c r="B9" s="19">
         <v>7</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" s="9"/>
-      <c r="E9" s="10">
+      <c r="C9" s="24">
+        <v>2</v>
+      </c>
+      <c r="D9" s="8"/>
+      <c r="E9" s="9">
         <f>--(Table13[[#This Row],[% COMPLETE]]&gt;=1)</f>
         <v>0</v>
       </c>
@@ -1929,14 +1922,14 @@
       <c r="G9" s="1"/>
     </row>
     <row r="10" spans="2:7" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="20">
+      <c r="B10" s="19">
         <v>8</v>
       </c>
-      <c r="C10" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D10" s="9"/>
-      <c r="E10" s="10">
+      <c r="C10" s="24">
+        <v>2</v>
+      </c>
+      <c r="D10" s="8"/>
+      <c r="E10" s="9">
         <f>--(Table13[[#This Row],[% COMPLETE]]&gt;=1)</f>
         <v>0</v>
       </c>
@@ -1944,14 +1937,14 @@
       <c r="G10" s="1"/>
     </row>
     <row r="11" spans="2:7" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="20">
+      <c r="B11" s="19">
         <v>9</v>
       </c>
-      <c r="C11" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" s="9"/>
-      <c r="E11" s="10">
+      <c r="C11" s="24">
+        <v>2</v>
+      </c>
+      <c r="D11" s="8"/>
+      <c r="E11" s="9">
         <f>--(Table13[[#This Row],[% COMPLETE]]&gt;=1)</f>
         <v>0</v>
       </c>
@@ -1959,14 +1952,14 @@
       <c r="G11" s="1"/>
     </row>
     <row r="12" spans="2:7" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="20">
+      <c r="B12" s="19">
         <v>10</v>
       </c>
-      <c r="C12" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D12" s="9"/>
-      <c r="E12" s="10">
+      <c r="C12" s="24">
+        <v>2</v>
+      </c>
+      <c r="D12" s="8"/>
+      <c r="E12" s="9">
         <f>--(Table13[[#This Row],[% COMPLETE]]&gt;=1)</f>
         <v>0</v>
       </c>
@@ -1974,14 +1967,14 @@
       <c r="G12" s="1"/>
     </row>
     <row r="13" spans="2:7" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="20">
+      <c r="B13" s="19">
         <v>11</v>
       </c>
-      <c r="C13" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" s="9"/>
-      <c r="E13" s="10">
+      <c r="C13" s="24">
+        <v>2</v>
+      </c>
+      <c r="D13" s="8"/>
+      <c r="E13" s="9">
         <f>--(Table13[[#This Row],[% COMPLETE]]&gt;=1)</f>
         <v>0</v>
       </c>
@@ -1989,132 +1982,132 @@
       <c r="G13" s="1"/>
     </row>
     <row r="14" spans="2:7" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="20">
+      <c r="B14" s="19">
         <v>12</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D14" s="17"/>
-      <c r="E14" s="18">
+      <c r="C14" s="24">
+        <v>2</v>
+      </c>
+      <c r="D14" s="16"/>
+      <c r="E14" s="17">
         <f>--(Table13[[#This Row],[% COMPLETE]]&gt;=1)</f>
         <v>0</v>
       </c>
       <c r="F14" s="2"/>
     </row>
     <row r="15" spans="2:7" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="20">
+      <c r="B15" s="19">
         <v>13</v>
       </c>
-      <c r="C15" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D15" s="17"/>
-      <c r="E15" s="18">
+      <c r="C15" s="24">
+        <v>2</v>
+      </c>
+      <c r="D15" s="16"/>
+      <c r="E15" s="17">
         <f>--(Table13[[#This Row],[% COMPLETE]]&gt;=1)</f>
         <v>0</v>
       </c>
       <c r="F15" s="2"/>
     </row>
     <row r="16" spans="2:7" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="20">
+      <c r="B16" s="19">
         <v>14</v>
       </c>
-      <c r="C16" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D16" s="17"/>
-      <c r="E16" s="18">
+      <c r="C16" s="24">
+        <v>2</v>
+      </c>
+      <c r="D16" s="16"/>
+      <c r="E16" s="17">
         <f>--(Table13[[#This Row],[% COMPLETE]]&gt;=1)</f>
         <v>0</v>
       </c>
       <c r="F16" s="2"/>
     </row>
     <row r="17" spans="2:7" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="20">
+      <c r="B17" s="19">
         <v>15</v>
       </c>
-      <c r="C17" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D17" s="23">
-        <v>0</v>
-      </c>
-      <c r="E17" s="18">
+      <c r="C17" s="24">
+        <v>1</v>
+      </c>
+      <c r="D17" s="22">
+        <v>0</v>
+      </c>
+      <c r="E17" s="17">
         <f>--(Table13[[#This Row],[% COMPLETE]]&gt;=1)</f>
         <v>0</v>
       </c>
       <c r="F17" s="2"/>
       <c r="G17" s="4" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="18" spans="2:7" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="20">
+      <c r="B18" s="19">
         <v>16</v>
       </c>
-      <c r="C18" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D18" s="17"/>
-      <c r="E18" s="18">
+      <c r="C18" s="24">
+        <v>2</v>
+      </c>
+      <c r="D18" s="16"/>
+      <c r="E18" s="17">
         <f>--(Table13[[#This Row],[% COMPLETE]]&gt;=1)</f>
         <v>0</v>
       </c>
       <c r="F18" s="2"/>
     </row>
     <row r="19" spans="2:7" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="20">
+      <c r="B19" s="19">
         <v>17</v>
       </c>
-      <c r="C19" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D19" s="17"/>
-      <c r="E19" s="18">
+      <c r="C19" s="24">
+        <v>2</v>
+      </c>
+      <c r="D19" s="16"/>
+      <c r="E19" s="17">
         <f>--(Table13[[#This Row],[% COMPLETE]]&gt;=1)</f>
         <v>0</v>
       </c>
       <c r="F19" s="2"/>
     </row>
     <row r="20" spans="2:7" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="20">
+      <c r="B20" s="19">
         <v>18</v>
       </c>
-      <c r="C20" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D20" s="23">
-        <v>0</v>
-      </c>
-      <c r="E20" s="18">
+      <c r="C20" s="24">
+        <v>1</v>
+      </c>
+      <c r="D20" s="22">
+        <v>0</v>
+      </c>
+      <c r="E20" s="17">
         <f>--(Table13[[#This Row],[% COMPLETE]]&gt;=1)</f>
         <v>0</v>
       </c>
       <c r="F20" s="2"/>
       <c r="G20" s="4" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="21" spans="2:7" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="20">
+      <c r="B21" s="19">
         <v>19</v>
       </c>
-      <c r="C21" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D21" s="23">
-        <v>0</v>
-      </c>
-      <c r="E21" s="18">
+      <c r="C21" s="24">
+        <v>1</v>
+      </c>
+      <c r="D21" s="22">
+        <v>0.5</v>
+      </c>
+      <c r="E21" s="17">
         <f>--(Table13[[#This Row],[% COMPLETE]]&gt;=1)</f>
         <v>0</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -2199,8 +2192,8 @@
   </sheetPr>
   <dimension ref="B1:G13"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView showGridLines="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="33" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2208,184 +2201,181 @@
     <col min="1" max="1" width="2.42578125" style="1" customWidth="1"/>
     <col min="2" max="2" width="26.28515625" style="2" customWidth="1"/>
     <col min="3" max="4" width="14.7109375" style="3" customWidth="1"/>
-    <col min="5" max="5" width="13.5703125" style="9" customWidth="1"/>
-    <col min="6" max="6" width="28.28515625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="39.140625" style="8" customWidth="1"/>
+    <col min="6" max="6" width="18.5703125" style="4" customWidth="1"/>
     <col min="7" max="7" width="24.140625" style="4" customWidth="1"/>
     <col min="8" max="8" width="2.42578125" style="1" customWidth="1"/>
     <col min="9" max="16384" width="8.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" s="11" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="12" t="s">
+    <row r="1" spans="2:7" s="10" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B1" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="13"/>
+    </row>
+    <row r="2" spans="2:7" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="14"/>
-    </row>
-    <row r="2" spans="2:7" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="15" t="s">
-        <v>1</v>
-      </c>
       <c r="F2" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="G2" s="16" t="s">
-        <v>14</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="G2" s="1"/>
     </row>
     <row r="3" spans="2:7" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="8">
-        <v>1</v>
-      </c>
-      <c r="E3" s="7">
+        <v>7</v>
+      </c>
+      <c r="C3" s="7">
+        <v>1</v>
+      </c>
+      <c r="D3" s="6">
         <f>--(Table145[[#This Row],[% COMPLETE]]&gt;=1)</f>
         <v>1</v>
       </c>
-      <c r="F3" s="5"/>
-      <c r="G3" s="1" t="s">
-        <v>17</v>
-      </c>
+      <c r="E3" s="5"/>
+      <c r="F3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="1"/>
     </row>
     <row r="4" spans="2:7" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="8">
-        <v>1</v>
-      </c>
-      <c r="E4" s="7">
+        <v>10</v>
+      </c>
+      <c r="C4" s="7">
+        <v>1</v>
+      </c>
+      <c r="D4" s="6">
         <f>--(Table145[[#This Row],[% COMPLETE]]&gt;=1)</f>
         <v>1</v>
       </c>
-      <c r="F4" s="5"/>
-      <c r="G4" s="1" t="s">
-        <v>15</v>
-      </c>
+      <c r="E4" s="5"/>
+      <c r="F4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="1"/>
     </row>
     <row r="5" spans="2:7" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>12</v>
+        <v>9</v>
+      </c>
+      <c r="C5" s="8">
+        <v>0.75</v>
       </c>
       <c r="D5" s="9">
-        <v>0.75</v>
-      </c>
-      <c r="E5" s="10">
         <f>--(Table145[[#This Row],[% COMPLETE]]&gt;=1)</f>
         <v>0</v>
       </c>
-      <c r="F5" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>16</v>
-      </c>
+      <c r="E5" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" s="1"/>
     </row>
     <row r="6" spans="2:7" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>12</v>
+        <v>8</v>
+      </c>
+      <c r="C6" s="8">
+        <v>0</v>
       </c>
       <c r="D6" s="9">
-        <v>0</v>
-      </c>
-      <c r="E6" s="10">
         <f>--(Table145[[#This Row],[% COMPLETE]]&gt;=1)</f>
         <v>0</v>
       </c>
-      <c r="F6" s="2" t="s">
-        <v>13</v>
-      </c>
+      <c r="E6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="1"/>
       <c r="G6" s="1"/>
     </row>
     <row r="7" spans="2:7" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D7" s="9"/>
-      <c r="E7" s="10">
+      <c r="C7" s="8"/>
+      <c r="D7" s="9">
         <f>--(Table145[[#This Row],[% COMPLETE]]&gt;=1)</f>
         <v>0</v>
       </c>
-      <c r="F7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="1"/>
       <c r="G7" s="1"/>
     </row>
     <row r="8" spans="2:7" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D8" s="9"/>
-      <c r="E8" s="10">
+      <c r="C8" s="8"/>
+      <c r="D8" s="9">
         <f>--(Table145[[#This Row],[% COMPLETE]]&gt;=1)</f>
         <v>0</v>
       </c>
-      <c r="F8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="1"/>
       <c r="G8" s="1"/>
     </row>
     <row r="9" spans="2:7" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D9" s="9"/>
-      <c r="E9" s="10">
+      <c r="C9" s="8"/>
+      <c r="D9" s="9">
         <f>--(Table145[[#This Row],[% COMPLETE]]&gt;=1)</f>
         <v>0</v>
       </c>
-      <c r="F9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="1"/>
       <c r="G9" s="1"/>
     </row>
     <row r="10" spans="2:7" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D10" s="9"/>
-      <c r="E10" s="10">
+      <c r="C10" s="8"/>
+      <c r="D10" s="9">
         <f>--(Table145[[#This Row],[% COMPLETE]]&gt;=1)</f>
         <v>0</v>
       </c>
-      <c r="F10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="1"/>
       <c r="G10" s="1"/>
     </row>
     <row r="11" spans="2:7" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D11" s="9"/>
-      <c r="E11" s="10">
+      <c r="C11" s="8"/>
+      <c r="D11" s="9">
         <f>--(Table145[[#This Row],[% COMPLETE]]&gt;=1)</f>
         <v>0</v>
       </c>
-      <c r="F11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="1"/>
       <c r="G11" s="1"/>
     </row>
     <row r="12" spans="2:7" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D12" s="9"/>
-      <c r="E12" s="10">
+      <c r="C12" s="8"/>
+      <c r="D12" s="9">
         <f>--(Table145[[#This Row],[% COMPLETE]]&gt;=1)</f>
         <v>0</v>
       </c>
-      <c r="F12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="1"/>
       <c r="G12" s="1"/>
     </row>
     <row r="13" spans="2:7" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D13" s="9"/>
-      <c r="E13" s="10">
+      <c r="C13" s="8"/>
+      <c r="D13" s="9">
         <f>--(Table145[[#This Row],[% COMPLETE]]&gt;=1)</f>
         <v>0</v>
       </c>
-      <c r="F13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="1"/>
       <c r="G13" s="1"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="D3:D13">
+  <conditionalFormatting sqref="C3:C13">
     <cfRule type="dataBar" priority="1">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -2400,7 +2390,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" errorTitle="This is not a listed value." error="Please pick a value in the list." sqref="D3:D13">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" errorTitle="This is not a listed value." error="Please pick a value in the list." sqref="C3:C13">
       <formula1>"0%,25%,50%,75%,100%"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2431,7 +2421,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D3:D13</xm:sqref>
+          <xm:sqref>C3:C13</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="2" id="{5BEBAD0C-4813-9541-A057-2AA9F7E897A7}">
@@ -2450,7 +2440,7 @@
               <x14:cfIcon iconSet="4TrafficLights" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>E3:E13</xm:sqref>
+          <xm:sqref>D3:D13</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>

--- a/Progress-Report.xlsx
+++ b/Progress-Report.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2560" yWindow="460" windowWidth="23860" windowHeight="17540" activeTab="1"/>
+    <workbookView xWindow="3440" yWindow="1400" windowWidth="23860" windowHeight="17540" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="User Interface" sheetId="5" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="52">
   <si>
     <t>DONE</t>
   </si>
@@ -74,18 +74,6 @@
     <t>To be done during Integration II</t>
   </si>
   <si>
-    <t>PUSHED</t>
-  </si>
-  <si>
-    <t>March 1, 2016</t>
-  </si>
-  <si>
-    <t>March 3, 2016</t>
-  </si>
-  <si>
-    <t>February 20, 2016</t>
-  </si>
-  <si>
     <t>Login / Register</t>
   </si>
   <si>
@@ -110,12 +98,6 @@
     <t>Fix layout, match design with other pages</t>
   </si>
   <si>
-    <t>February 26, 2016</t>
-  </si>
-  <si>
-    <t>February 25, 2016</t>
-  </si>
-  <si>
     <t>FUNCTIONS</t>
   </si>
   <si>
@@ -177,12 +159,6 @@
   </si>
   <si>
     <t>Deadline reminders for project heads</t>
-  </si>
-  <si>
-    <t>ask for update</t>
-  </si>
-  <si>
-    <t>Can't tell, doesn’t redirect to dashboard yet</t>
   </si>
   <si>
     <t>USER STORY #</t>
@@ -399,7 +375,32 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
     <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="33">
+  <dxfs count="30">
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -429,7 +430,11 @@
       </font>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -438,69 +443,6 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="13"/>
-        <color theme="4" tint="0.39991454817346722"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="13"/>
-        <color theme="4" tint="0.39991454817346722"/>
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
@@ -565,23 +507,6 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="13"/>
-        <color theme="4" tint="0.39991454817346722"/>
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
@@ -681,10 +606,10 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="Task List" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="Task List" pivot="0" count="4">
-      <tableStyleElement type="wholeTable" dxfId="32"/>
-      <tableStyleElement type="headerRow" dxfId="31"/>
-      <tableStyleElement type="totalRow" dxfId="30"/>
-      <tableStyleElement type="firstColumn" dxfId="29"/>
+      <tableStyleElement type="wholeTable" dxfId="29"/>
+      <tableStyleElement type="headerRow" dxfId="28"/>
+      <tableStyleElement type="totalRow" dxfId="27"/>
+      <tableStyleElement type="firstColumn" dxfId="26"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -699,69 +624,66 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table14" displayName="Table14" ref="B2:G13" totalsRowShown="0" headerRowDxfId="28">
-  <autoFilter ref="B2:G13"/>
-  <tableColumns count="6">
-    <tableColumn id="1" name="PAGE" dataDxfId="27"/>
-    <tableColumn id="6" name="% COMPLETE" dataDxfId="26"/>
-    <tableColumn id="7" name="DONE" dataDxfId="25">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table14" displayName="Table14" ref="B2:F13" totalsRowShown="0" headerRowDxfId="25">
+  <autoFilter ref="B2:F13"/>
+  <tableColumns count="5">
+    <tableColumn id="1" name="PAGE" dataDxfId="24"/>
+    <tableColumn id="6" name="% COMPLETE" dataDxfId="23"/>
+    <tableColumn id="7" name="DONE" dataDxfId="22">
       <calculatedColumnFormula>--(Table14[[#This Row],[% COMPLETE]]&gt;=1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="REMARKS" dataDxfId="24"/>
-    <tableColumn id="3" name="PUSHED" dataDxfId="23"/>
-    <tableColumn id="9" name="PERSON-IN-CHARGE" dataDxfId="22"/>
+    <tableColumn id="8" name="REMARKS" dataDxfId="21"/>
+    <tableColumn id="9" name="PERSON-IN-CHARGE" dataDxfId="20"/>
   </tableColumns>
   <tableStyleInfo name="Task List" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B2:I21" totalsRowShown="0" headerRowDxfId="21">
-  <autoFilter ref="B2:I21"/>
-  <tableColumns count="8">
-    <tableColumn id="1" name="FUNCTIONS" dataDxfId="20"/>
-    <tableColumn id="10" name="USER STORY #" dataDxfId="19"/>
-    <tableColumn id="5" name="ITERATION" dataDxfId="18"/>
-    <tableColumn id="6" name="% COMPLETE" dataDxfId="17"/>
-    <tableColumn id="7" name="DONE" dataDxfId="16">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B2:H21" totalsRowShown="0" headerRowDxfId="19">
+  <autoFilter ref="B2:H21"/>
+  <tableColumns count="7">
+    <tableColumn id="1" name="FUNCTIONS" dataDxfId="18"/>
+    <tableColumn id="10" name="USER STORY #" dataDxfId="17"/>
+    <tableColumn id="5" name="ITERATION" dataDxfId="16"/>
+    <tableColumn id="6" name="% COMPLETE" dataDxfId="15"/>
+    <tableColumn id="7" name="DONE" dataDxfId="14">
       <calculatedColumnFormula>--(Table1[[#This Row],[% COMPLETE]]&gt;=1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="REMARKS" dataDxfId="15"/>
-    <tableColumn id="3" name="PUSHED" dataDxfId="14"/>
-    <tableColumn id="11" name="PERSON-IN-CHARGE" dataDxfId="13"/>
+    <tableColumn id="8" name="REMARKS" dataDxfId="13"/>
+    <tableColumn id="11" name="PERSON-IN-CHARGE" dataDxfId="12"/>
   </tableColumns>
   <tableStyleInfo name="Task List" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="B2:G21" totalsRowShown="0" headerRowDxfId="12">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="B2:G21" totalsRowShown="0" headerRowDxfId="11">
   <autoFilter ref="B2:G21"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="USER STORY" dataDxfId="11"/>
-    <tableColumn id="5" name="ITERATION" dataDxfId="10"/>
-    <tableColumn id="6" name="% COMPLETE" dataDxfId="9"/>
-    <tableColumn id="7" name="DONE" dataDxfId="8">
+    <tableColumn id="1" name="USER STORY" dataDxfId="10"/>
+    <tableColumn id="5" name="ITERATION" dataDxfId="9"/>
+    <tableColumn id="6" name="% COMPLETE" dataDxfId="8"/>
+    <tableColumn id="7" name="DONE" dataDxfId="7">
       <calculatedColumnFormula>--(Table13[[#This Row],[% COMPLETE]]&gt;=1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="REMARKS" dataDxfId="7"/>
-    <tableColumn id="3" name="PERSON-IN-CHARGE" dataDxfId="6"/>
+    <tableColumn id="8" name="REMARKS" dataDxfId="6"/>
+    <tableColumn id="3" name="PERSON-IN-CHARGE" dataDxfId="5"/>
   </tableColumns>
   <tableStyleInfo name="Task List" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table145" displayName="Table145" ref="B2:F13" totalsRowShown="0" headerRowDxfId="5">
-  <autoFilter ref="B2:F13"/>
-  <tableColumns count="5">
-    <tableColumn id="1" name="PAPER" dataDxfId="4"/>
-    <tableColumn id="6" name="% COMPLETE" dataDxfId="3"/>
-    <tableColumn id="7" name="DONE" dataDxfId="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table145" displayName="Table145" ref="B2:E13" totalsRowShown="0" headerRowDxfId="4">
+  <autoFilter ref="B2:E13"/>
+  <tableColumns count="4">
+    <tableColumn id="1" name="PAPER" dataDxfId="3"/>
+    <tableColumn id="6" name="% COMPLETE" dataDxfId="2"/>
+    <tableColumn id="7" name="DONE" dataDxfId="1">
       <calculatedColumnFormula>--(Table145[[#This Row],[% COMPLETE]]&gt;=1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="REMARKS" dataDxfId="1"/>
-    <tableColumn id="9" name="PUSHED" dataDxfId="0"/>
+    <tableColumn id="8" name="REMARKS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="Task List" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -977,7 +899,7 @@
   <dimension ref="B1:G29"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="14" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -986,7 +908,7 @@
     <col min="2" max="2" width="19.7109375" style="2" customWidth="1"/>
     <col min="3" max="4" width="14.7109375" style="3" customWidth="1"/>
     <col min="5" max="5" width="37.42578125" style="8" customWidth="1"/>
-    <col min="6" max="6" width="15.85546875" style="4" customWidth="1"/>
+    <col min="6" max="6" width="19" style="4" customWidth="1"/>
     <col min="7" max="7" width="16.5703125" style="4" customWidth="1"/>
     <col min="8" max="8" width="15.5703125" style="1" customWidth="1"/>
     <col min="9" max="16384" width="8.7109375" style="1"/>
@@ -1014,34 +936,28 @@
         <v>3</v>
       </c>
       <c r="F2" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" s="15" t="s">
-        <v>30</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G2" s="1"/>
     </row>
     <row r="3" spans="2:7" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="5" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C3" s="7">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="D3" s="6">
         <f>--(Table14[[#This Row],[% COMPLETE]]&gt;=1)</f>
-        <v>0</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>24</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="E3" s="5"/>
+      <c r="F3" s="1"/>
       <c r="G3" s="1"/>
     </row>
     <row r="4" spans="2:7" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="5" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C4" s="7">
         <v>0.5</v>
@@ -1051,16 +967,14 @@
         <v>0</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>25</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="F4" s="1"/>
       <c r="G4" s="1"/>
     </row>
     <row r="5" spans="2:7" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="5" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C5" s="8">
         <v>0</v>
@@ -1075,7 +989,7 @@
     </row>
     <row r="6" spans="2:7" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C6" s="8">
         <v>0.75</v>
@@ -1085,16 +999,14 @@
         <v>0</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>14</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="F6" s="1"/>
       <c r="G6" s="1"/>
     </row>
     <row r="7" spans="2:7" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C7" s="8">
         <v>0</v>
@@ -1109,7 +1021,7 @@
     </row>
     <row r="8" spans="2:7" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C8" s="8">
         <v>0</v>
@@ -1124,7 +1036,7 @@
     </row>
     <row r="9" spans="2:7" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="2" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C9" s="8">
         <v>0.75</v>
@@ -1134,11 +1046,9 @@
         <v>0</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>25</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="F9" s="1"/>
       <c r="G9" s="1"/>
     </row>
     <row r="10" spans="2:7" ht="22" customHeight="1" x14ac:dyDescent="0.2">
@@ -1277,10 +1187,10 @@
     <tabColor theme="4"/>
     <pageSetUpPr autoPageBreaks="0" fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:I21"/>
+  <dimension ref="B1:H21"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView showGridLines="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="H21" sqref="H2:H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="33" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1292,12 +1202,12 @@
     <col min="5" max="5" width="13.5703125" style="8" customWidth="1"/>
     <col min="6" max="6" width="7" style="4" customWidth="1"/>
     <col min="7" max="7" width="32.85546875" style="4" customWidth="1"/>
-    <col min="8" max="8" width="10.7109375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="16.28515625" style="1" customWidth="1"/>
     <col min="9" max="9" width="14.7109375" style="1" customWidth="1"/>
     <col min="10" max="16384" width="8.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" s="10" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:8" s="10" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B1" s="11" t="s">
         <v>2</v>
       </c>
@@ -1305,15 +1215,15 @@
       <c r="D1" s="12"/>
       <c r="E1" s="13"/>
     </row>
-    <row r="2" spans="2:9" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:8" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="20" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C2" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="D2" s="14" t="s">
         <v>49</v>
-      </c>
-      <c r="D2" s="14" t="s">
-        <v>57</v>
       </c>
       <c r="E2" s="14" t="s">
         <v>1</v>
@@ -1325,15 +1235,12 @@
         <v>3</v>
       </c>
       <c r="H2" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="I2" s="15" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="3" spans="2:9" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="5" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="C3" s="18">
         <v>1</v>
@@ -1349,13 +1256,13 @@
         <v>1</v>
       </c>
       <c r="G3" s="5"/>
-      <c r="I3" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="4" spans="2:9" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H3" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="5" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C4" s="18">
         <v>2</v>
@@ -1371,13 +1278,13 @@
         <v>1</v>
       </c>
       <c r="G4" s="5"/>
-      <c r="I4" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="5" spans="2:9" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H4" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="5" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C5" s="18">
         <v>3</v>
@@ -1386,22 +1293,20 @@
         <v>1</v>
       </c>
       <c r="E5" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F5" s="9">
         <f>--(Table1[[#This Row],[% COMPLETE]]&gt;=1)</f>
-        <v>0</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="6" spans="2:9" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="G5" s="2"/>
+      <c r="H5" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="2" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C6" s="19">
         <v>4</v>
@@ -1415,9 +1320,9 @@
       </c>
       <c r="G6" s="2"/>
     </row>
-    <row r="7" spans="2:9" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:8" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="2" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C7" s="19">
         <v>5</v>
@@ -1431,9 +1336,9 @@
       </c>
       <c r="G7" s="2"/>
     </row>
-    <row r="8" spans="2:9" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:8" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="2" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C8" s="19">
         <v>6</v>
@@ -1447,9 +1352,9 @@
       </c>
       <c r="G8" s="2"/>
     </row>
-    <row r="9" spans="2:9" ht="43" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:8" ht="43" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="2" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C9" s="19">
         <v>7</v>
@@ -1463,9 +1368,9 @@
       </c>
       <c r="G9" s="2"/>
     </row>
-    <row r="10" spans="2:9" ht="37" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:8" ht="37" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="2" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="C10" s="19">
         <v>8</v>
@@ -1479,9 +1384,9 @@
       </c>
       <c r="G10" s="2"/>
     </row>
-    <row r="11" spans="2:9" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:8" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="2" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C11" s="19">
         <v>9</v>
@@ -1495,9 +1400,9 @@
       </c>
       <c r="G11" s="2"/>
     </row>
-    <row r="12" spans="2:9" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:8" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="2" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C12" s="19">
         <v>10</v>
@@ -1511,9 +1416,9 @@
       </c>
       <c r="G12" s="2"/>
     </row>
-    <row r="13" spans="2:9" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:8" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="2" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="C13" s="19">
         <v>11</v>
@@ -1527,9 +1432,9 @@
       </c>
       <c r="G13" s="2"/>
     </row>
-    <row r="14" spans="2:9" ht="38" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:8" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="2" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C14" s="19">
         <v>12</v>
@@ -1543,9 +1448,9 @@
       </c>
       <c r="G14" s="2"/>
     </row>
-    <row r="15" spans="2:9" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:8" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="2" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C15" s="19">
         <v>13</v>
@@ -1559,9 +1464,9 @@
       </c>
       <c r="G15" s="2"/>
     </row>
-    <row r="16" spans="2:9" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:8" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="2" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C16" s="21">
         <v>14</v>
@@ -1575,9 +1480,9 @@
       </c>
       <c r="G16" s="2"/>
     </row>
-    <row r="17" spans="2:9" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:8" ht="31" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="2" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="C17" s="21">
         <v>15</v>
@@ -1593,13 +1498,13 @@
         <v>0</v>
       </c>
       <c r="G17" s="2"/>
-      <c r="I17" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="18" spans="2:9" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H17" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="2" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C18" s="21">
         <v>16</v>
@@ -1613,9 +1518,9 @@
       </c>
       <c r="G18" s="2"/>
     </row>
-    <row r="19" spans="2:9" ht="48" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:8" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="2" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="C19" s="21">
         <v>17</v>
@@ -1629,9 +1534,9 @@
       </c>
       <c r="G19" s="2"/>
     </row>
-    <row r="20" spans="2:9" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:8" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="2" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C20" s="21">
         <v>18</v>
@@ -1640,22 +1545,20 @@
         <v>1</v>
       </c>
       <c r="E20" s="8">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="F20" s="9">
         <f>--(Table1[[#This Row],[% COMPLETE]]&gt;=1)</f>
-        <v>0</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="I20" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="21" spans="2:9" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="G20" s="2"/>
+      <c r="H20" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="2" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C21" s="21">
         <v>19</v>
@@ -1671,8 +1574,8 @@
         <v>0</v>
       </c>
       <c r="G21" s="2"/>
-      <c r="I21" s="1" t="s">
-        <v>52</v>
+      <c r="H21" s="1" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -1787,7 +1690,7 @@
         <v>4</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="D2" s="14" t="s">
         <v>1</v>
@@ -1799,7 +1702,7 @@
         <v>3</v>
       </c>
       <c r="G2" s="15" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="2:7" ht="22" customHeight="1" x14ac:dyDescent="0.2">
@@ -1818,7 +1721,7 @@
       </c>
       <c r="F3" s="5"/>
       <c r="G3" s="1" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="2:7" ht="22" customHeight="1" x14ac:dyDescent="0.2">
@@ -1836,10 +1739,10 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="2:7" ht="22" customHeight="1" x14ac:dyDescent="0.2">
@@ -1858,7 +1761,7 @@
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="1" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="2:7" ht="22" customHeight="1" x14ac:dyDescent="0.2">
@@ -2039,7 +1942,7 @@
       </c>
       <c r="F17" s="2"/>
       <c r="G17" s="4" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
     </row>
     <row r="18" spans="2:7" ht="22" customHeight="1" x14ac:dyDescent="0.2">
@@ -2086,7 +1989,7 @@
       </c>
       <c r="F20" s="2"/>
       <c r="G20" s="4" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
     </row>
     <row r="21" spans="2:7" ht="22" customHeight="1" x14ac:dyDescent="0.2">
@@ -2104,10 +2007,10 @@
         <v>0</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -2192,8 +2095,8 @@
   </sheetPr>
   <dimension ref="B1:G13"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="33" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2229,9 +2132,7 @@
       <c r="E2" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="15" t="s">
-        <v>12</v>
-      </c>
+      <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="2:7" ht="22" customHeight="1" x14ac:dyDescent="0.2">
@@ -2246,9 +2147,7 @@
         <v>1</v>
       </c>
       <c r="E3" s="5"/>
-      <c r="F3" s="1" t="s">
-        <v>15</v>
-      </c>
+      <c r="F3" s="1"/>
       <c r="G3" s="1"/>
     </row>
     <row r="4" spans="2:7" ht="22" customHeight="1" x14ac:dyDescent="0.2">
@@ -2263,9 +2162,7 @@
         <v>1</v>
       </c>
       <c r="E4" s="5"/>
-      <c r="F4" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="F4" s="1"/>
       <c r="G4" s="1"/>
     </row>
     <row r="5" spans="2:7" ht="22" customHeight="1" x14ac:dyDescent="0.2">
@@ -2280,11 +2177,9 @@
         <v>0</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>14</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="F5" s="1"/>
       <c r="G5" s="1"/>
     </row>
     <row r="6" spans="2:7" ht="22" customHeight="1" x14ac:dyDescent="0.2">

--- a/Progress-Report.xlsx
+++ b/Progress-Report.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3440" yWindow="1400" windowWidth="23860" windowHeight="17540" activeTab="3"/>
+    <workbookView xWindow="12320" yWindow="1400" windowWidth="23860" windowHeight="17540" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="User Interface" sheetId="5" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="51">
   <si>
     <t>DONE</t>
   </si>
@@ -180,9 +180,6 @@
   </si>
   <si>
     <t>Edgar Dimanarig</t>
-  </si>
-  <si>
-    <t>Few minor edits on diagram, mostly on arrows</t>
   </si>
   <si>
     <t>ITERATION</t>
@@ -899,7 +896,7 @@
   <dimension ref="B1:G29"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="14" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1190,7 +1187,7 @@
   <dimension ref="B1:H21"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="H21" sqref="H2:H21"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="33" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1223,7 +1220,7 @@
         <v>41</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E2" s="14" t="s">
         <v>1</v>
@@ -1660,8 +1657,8 @@
   </sheetPr>
   <dimension ref="B1:G21"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="33" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1690,7 +1687,7 @@
         <v>4</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D2" s="14" t="s">
         <v>1</v>
@@ -1713,13 +1710,15 @@
         <v>1</v>
       </c>
       <c r="D3" s="7">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="E3" s="6">
         <f>--(Table13[[#This Row],[% COMPLETE]]&gt;=1)</f>
         <v>0</v>
       </c>
-      <c r="F3" s="5"/>
+      <c r="F3" s="5" t="s">
+        <v>50</v>
+      </c>
       <c r="G3" s="1" t="s">
         <v>45</v>
       </c>
@@ -1739,7 +1738,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>46</v>
@@ -2007,7 +2006,7 @@
         <v>0</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G21" s="4" t="s">
         <v>47</v>
@@ -2095,8 +2094,8 @@
   </sheetPr>
   <dimension ref="B1:G13"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView showGridLines="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="33" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2170,15 +2169,13 @@
         <v>9</v>
       </c>
       <c r="C5" s="8">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="D5" s="9">
         <f>--(Table145[[#This Row],[% COMPLETE]]&gt;=1)</f>
-        <v>0</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>48</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="E5" s="2"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
     </row>

--- a/Progress-Report.xlsx
+++ b/Progress-Report.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="12320" yWindow="1400" windowWidth="23860" windowHeight="17540" activeTab="2"/>
+    <workbookView xWindow="6820" yWindow="500" windowWidth="23860" windowHeight="17540" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="User Interface" sheetId="5" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="51">
   <si>
     <t>DONE</t>
   </si>
@@ -896,7 +896,7 @@
   <dimension ref="B1:G29"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="14" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -957,7 +957,7 @@
         <v>13</v>
       </c>
       <c r="C4" s="7">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="D4" s="6">
         <f>--(Table14[[#This Row],[% COMPLETE]]&gt;=1)</f>
@@ -1186,8 +1186,8 @@
   </sheetPr>
   <dimension ref="B1:H21"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView showGridLines="0" topLeftCell="A3" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="33" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1488,11 +1488,11 @@
         <v>1</v>
       </c>
       <c r="E17" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F17" s="9">
         <f>--(Table1[[#This Row],[% COMPLETE]]&gt;=1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G17" s="2"/>
       <c r="H17" s="1" t="s">
@@ -1564,11 +1564,11 @@
         <v>1</v>
       </c>
       <c r="E21" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F21" s="9">
         <f>--(Table1[[#This Row],[% COMPLETE]]&gt;=1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G21" s="2"/>
       <c r="H21" s="1" t="s">
@@ -1657,8 +1657,8 @@
   </sheetPr>
   <dimension ref="B1:G21"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView showGridLines="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="33" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1980,13 +1980,15 @@
         <v>1</v>
       </c>
       <c r="D20" s="22">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="E20" s="17">
         <f>--(Table13[[#This Row],[% COMPLETE]]&gt;=1)</f>
         <v>0</v>
       </c>
-      <c r="F20" s="2"/>
+      <c r="F20" s="2" t="s">
+        <v>50</v>
+      </c>
       <c r="G20" s="4" t="s">
         <v>45</v>
       </c>
@@ -2094,7 +2096,7 @@
   </sheetPr>
   <dimension ref="B1:G13"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
       <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>

--- a/Progress-Report.xlsx
+++ b/Progress-Report.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="6820" yWindow="500" windowWidth="23860" windowHeight="17540" activeTab="3"/>
+    <workbookView xWindow="6820" yWindow="500" windowWidth="23860" windowHeight="17540"/>
   </bookViews>
   <sheets>
     <sheet name="User Interface" sheetId="5" r:id="rId1"/>
@@ -62,18 +62,12 @@
     <t>Software System Specficiation</t>
   </si>
   <si>
-    <t>Class Diagram</t>
-  </si>
-  <si>
     <t>Entity-Relationship Model</t>
   </si>
   <si>
     <t>Project Plan</t>
   </si>
   <si>
-    <t>To be done during Integration II</t>
-  </si>
-  <si>
     <t>Login / Register</t>
   </si>
   <si>
@@ -189,6 +183,12 @@
   </si>
   <si>
     <t>Still to test</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iteration 1 Class Diagram </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iteration 2 Class Diagram </t>
   </si>
 </sst>
 </file>
@@ -895,8 +895,8 @@
   </sheetPr>
   <dimension ref="B1:G29"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="14" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -933,13 +933,13 @@
         <v>3</v>
       </c>
       <c r="F2" s="15" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="2:7" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C3" s="7">
         <v>1</v>
@@ -954,7 +954,7 @@
     </row>
     <row r="4" spans="2:7" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C4" s="7">
         <v>0.75</v>
@@ -964,14 +964,14 @@
         <v>0</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
     </row>
     <row r="5" spans="2:7" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C5" s="8">
         <v>0</v>
@@ -986,7 +986,7 @@
     </row>
     <row r="6" spans="2:7" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C6" s="8">
         <v>0.75</v>
@@ -996,14 +996,14 @@
         <v>0</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
     </row>
     <row r="7" spans="2:7" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C7" s="8">
         <v>0</v>
@@ -1018,7 +1018,7 @@
     </row>
     <row r="8" spans="2:7" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C8" s="8">
         <v>0</v>
@@ -1033,7 +1033,7 @@
     </row>
     <row r="9" spans="2:7" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C9" s="8">
         <v>0.75</v>
@@ -1043,7 +1043,7 @@
         <v>0</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
@@ -1186,7 +1186,7 @@
   </sheetPr>
   <dimension ref="B1:H21"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A3" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
@@ -1214,13 +1214,13 @@
     </row>
     <row r="2" spans="2:8" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="20" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E2" s="14" t="s">
         <v>1</v>
@@ -1232,12 +1232,12 @@
         <v>3</v>
       </c>
       <c r="H2" s="15" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="2:8" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C3" s="18">
         <v>1</v>
@@ -1254,12 +1254,12 @@
       </c>
       <c r="G3" s="5"/>
       <c r="H3" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="2:8" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C4" s="18">
         <v>2</v>
@@ -1276,12 +1276,12 @@
       </c>
       <c r="G4" s="5"/>
       <c r="H4" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="2:8" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C5" s="18">
         <v>3</v>
@@ -1298,12 +1298,12 @@
       </c>
       <c r="G5" s="2"/>
       <c r="H5" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="2:8" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C6" s="19">
         <v>4</v>
@@ -1319,7 +1319,7 @@
     </row>
     <row r="7" spans="2:8" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C7" s="19">
         <v>5</v>
@@ -1335,7 +1335,7 @@
     </row>
     <row r="8" spans="2:8" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C8" s="19">
         <v>6</v>
@@ -1351,7 +1351,7 @@
     </row>
     <row r="9" spans="2:8" ht="43" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C9" s="19">
         <v>7</v>
@@ -1367,7 +1367,7 @@
     </row>
     <row r="10" spans="2:8" ht="37" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C10" s="19">
         <v>8</v>
@@ -1383,7 +1383,7 @@
     </row>
     <row r="11" spans="2:8" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C11" s="19">
         <v>9</v>
@@ -1399,7 +1399,7 @@
     </row>
     <row r="12" spans="2:8" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C12" s="19">
         <v>10</v>
@@ -1415,7 +1415,7 @@
     </row>
     <row r="13" spans="2:8" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C13" s="19">
         <v>11</v>
@@ -1431,7 +1431,7 @@
     </row>
     <row r="14" spans="2:8" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C14" s="19">
         <v>12</v>
@@ -1447,7 +1447,7 @@
     </row>
     <row r="15" spans="2:8" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C15" s="19">
         <v>13</v>
@@ -1463,7 +1463,7 @@
     </row>
     <row r="16" spans="2:8" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C16" s="21">
         <v>14</v>
@@ -1479,7 +1479,7 @@
     </row>
     <row r="17" spans="2:8" ht="31" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C17" s="21">
         <v>15</v>
@@ -1496,12 +1496,12 @@
       </c>
       <c r="G17" s="2"/>
       <c r="H17" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="18" spans="2:8" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C18" s="21">
         <v>16</v>
@@ -1517,7 +1517,7 @@
     </row>
     <row r="19" spans="2:8" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C19" s="21">
         <v>17</v>
@@ -1533,7 +1533,7 @@
     </row>
     <row r="20" spans="2:8" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C20" s="21">
         <v>18</v>
@@ -1550,12 +1550,12 @@
       </c>
       <c r="G20" s="2"/>
       <c r="H20" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="21" spans="2:8" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C21" s="21">
         <v>19</v>
@@ -1572,7 +1572,7 @@
       </c>
       <c r="G21" s="2"/>
       <c r="H21" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -1687,7 +1687,7 @@
         <v>4</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D2" s="14" t="s">
         <v>1</v>
@@ -1699,7 +1699,7 @@
         <v>3</v>
       </c>
       <c r="G2" s="15" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="2:7" ht="22" customHeight="1" x14ac:dyDescent="0.2">
@@ -1717,10 +1717,10 @@
         <v>0</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="2:7" ht="22" customHeight="1" x14ac:dyDescent="0.2">
@@ -1738,10 +1738,10 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="2:7" ht="22" customHeight="1" x14ac:dyDescent="0.2">
@@ -1760,7 +1760,7 @@
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="2:7" ht="22" customHeight="1" x14ac:dyDescent="0.2">
@@ -1941,7 +1941,7 @@
       </c>
       <c r="F17" s="2"/>
       <c r="G17" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="18" spans="2:7" ht="22" customHeight="1" x14ac:dyDescent="0.2">
@@ -1987,10 +1987,10 @@
         <v>0</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="21" spans="2:7" ht="22" customHeight="1" x14ac:dyDescent="0.2">
@@ -2008,10 +2008,10 @@
         <v>0</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -2096,8 +2096,8 @@
   </sheetPr>
   <dimension ref="B1:G13"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView showGridLines="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="33" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2153,7 +2153,7 @@
     </row>
     <row r="4" spans="2:7" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C4" s="7">
         <v>1</v>
@@ -2168,7 +2168,7 @@
     </row>
     <row r="5" spans="2:7" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C5" s="8">
         <v>1</v>
@@ -2183,23 +2183,26 @@
     </row>
     <row r="6" spans="2:7" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="2" t="s">
-        <v>8</v>
+        <v>49</v>
       </c>
       <c r="C6" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6" s="9">
         <f>--(Table145[[#This Row],[% COMPLETE]]&gt;=1)</f>
-        <v>0</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>11</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="E6" s="2"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
     </row>
     <row r="7" spans="2:7" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C7" s="8"/>
+      <c r="B7" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C7" s="8">
+        <v>0</v>
+      </c>
       <c r="D7" s="9">
         <f>--(Table145[[#This Row],[% COMPLETE]]&gt;=1)</f>
         <v>0</v>

--- a/Progress-Report.xlsx
+++ b/Progress-Report.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26408"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" hidePivotFieldList="1"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/megavancena/HOM-Documents/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="6820" yWindow="500" windowWidth="23860" windowHeight="17540"/>
+    <workbookView xWindow="17085" yWindow="465" windowWidth="19440" windowHeight="13740" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="User Interface" sheetId="5" r:id="rId1"/>
@@ -23,12 +18,12 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="2">'Test Cases'!$2:$2</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'User Interface'!$2:$2</definedName>
   </definedNames>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="145621" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -36,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="49">
   <si>
     <t>DONE</t>
   </si>
@@ -177,12 +172,6 @@
   </si>
   <si>
     <t>ITERATION</t>
-  </si>
-  <si>
-    <t>Not yet done testing</t>
-  </si>
-  <si>
-    <t>Still to test</t>
   </si>
   <si>
     <t xml:space="preserve">Iteration 1 Class Diagram </t>
@@ -195,7 +184,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
       <sz val="13"/>
       <color theme="4" tint="0.39991454817346722"/>
@@ -881,7 +870,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -895,23 +884,23 @@
   </sheetPr>
   <dimension ref="B1:G29"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView showGridLines="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="14" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.1" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="2.42578125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="19.7109375" style="2" customWidth="1"/>
-    <col min="3" max="4" width="14.7109375" style="3" customWidth="1"/>
-    <col min="5" max="5" width="37.42578125" style="8" customWidth="1"/>
+    <col min="1" max="1" width="2.44140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="19.6640625" style="2" customWidth="1"/>
+    <col min="3" max="4" width="14.6640625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="37.44140625" style="8" customWidth="1"/>
     <col min="6" max="6" width="19" style="4" customWidth="1"/>
-    <col min="7" max="7" width="16.5703125" style="4" customWidth="1"/>
-    <col min="8" max="8" width="15.5703125" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="8.7109375" style="1"/>
+    <col min="7" max="7" width="16.5546875" style="4" customWidth="1"/>
+    <col min="8" max="8" width="15.5546875" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" s="10" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:7" s="10" customFormat="1" ht="21.95" customHeight="1">
       <c r="B1" s="11" t="s">
         <v>2</v>
       </c>
@@ -919,7 +908,7 @@
       <c r="D1" s="12"/>
       <c r="E1" s="13"/>
     </row>
-    <row r="2" spans="2:7" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:7" ht="21.95" customHeight="1">
       <c r="B2" s="14" t="s">
         <v>5</v>
       </c>
@@ -937,7 +926,7 @@
       </c>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="2:7" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:7" ht="21.95" customHeight="1">
       <c r="B3" s="5" t="s">
         <v>10</v>
       </c>
@@ -952,7 +941,7 @@
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="2:7" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:7" ht="21.95" customHeight="1">
       <c r="B4" s="5" t="s">
         <v>11</v>
       </c>
@@ -969,7 +958,7 @@
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
     </row>
-    <row r="5" spans="2:7" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:7" ht="21.95" customHeight="1">
       <c r="B5" s="5" t="s">
         <v>12</v>
       </c>
@@ -984,7 +973,7 @@
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="2:7" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:7" ht="21.95" customHeight="1">
       <c r="B6" s="2" t="s">
         <v>13</v>
       </c>
@@ -1001,7 +990,7 @@
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
     </row>
-    <row r="7" spans="2:7" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:7" ht="21.95" customHeight="1">
       <c r="B7" s="2" t="s">
         <v>14</v>
       </c>
@@ -1016,7 +1005,7 @@
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
     </row>
-    <row r="8" spans="2:7" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:7" ht="21.95" customHeight="1">
       <c r="B8" s="2" t="s">
         <v>15</v>
       </c>
@@ -1031,7 +1020,7 @@
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
     </row>
-    <row r="9" spans="2:7" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:7" ht="21.95" customHeight="1">
       <c r="B9" s="2" t="s">
         <v>16</v>
       </c>
@@ -1048,7 +1037,7 @@
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
     </row>
-    <row r="10" spans="2:7" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:7" ht="21.95" customHeight="1">
       <c r="C10" s="8"/>
       <c r="D10" s="9">
         <f>--(Table14[[#This Row],[% COMPLETE]]&gt;=1)</f>
@@ -1058,7 +1047,7 @@
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
     </row>
-    <row r="11" spans="2:7" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:7" ht="21.95" customHeight="1">
       <c r="C11" s="8"/>
       <c r="D11" s="9">
         <f>--(Table14[[#This Row],[% COMPLETE]]&gt;=1)</f>
@@ -1068,7 +1057,7 @@
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
     </row>
-    <row r="12" spans="2:7" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:7" ht="21.95" customHeight="1">
       <c r="C12" s="8"/>
       <c r="D12" s="9">
         <f>--(Table14[[#This Row],[% COMPLETE]]&gt;=1)</f>
@@ -1078,7 +1067,7 @@
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
     </row>
-    <row r="13" spans="2:7" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:7" ht="21.95" customHeight="1">
       <c r="C13" s="8"/>
       <c r="D13" s="9">
         <f>--(Table14[[#This Row],[% COMPLETE]]&gt;=1)</f>
@@ -1088,22 +1077,22 @@
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
     </row>
-    <row r="14" spans="2:7" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="15" spans="2:7" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="16" spans="2:7" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="17" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="18" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="19" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="20" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="21" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="22" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="23" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="24" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="25" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="26" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="27" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="28" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="29" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="14" spans="2:7" ht="21.95" customHeight="1"/>
+    <row r="15" spans="2:7" ht="21.95" customHeight="1"/>
+    <row r="16" spans="2:7" ht="21.95" customHeight="1"/>
+    <row r="17" ht="21.95" customHeight="1"/>
+    <row r="18" ht="21.95" customHeight="1"/>
+    <row r="19" ht="21.95" customHeight="1"/>
+    <row r="20" ht="21.95" customHeight="1"/>
+    <row r="21" ht="21.95" customHeight="1"/>
+    <row r="22" ht="21.95" customHeight="1"/>
+    <row r="23" ht="21.95" customHeight="1"/>
+    <row r="24" ht="21.95" customHeight="1"/>
+    <row r="25" ht="21.95" customHeight="1"/>
+    <row r="26" ht="21.95" customHeight="1"/>
+    <row r="27" ht="21.95" customHeight="1"/>
+    <row r="28" ht="21.95" customHeight="1"/>
+    <row r="29" ht="21.95" customHeight="1"/>
   </sheetData>
   <conditionalFormatting sqref="C3:C13">
     <cfRule type="dataBar" priority="1">
@@ -1186,25 +1175,25 @@
   </sheetPr>
   <dimension ref="B1:H21"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView showGridLines="0" topLeftCell="A11" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="33" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="33" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="2.42578125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="19.7109375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="11.5703125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="2.44140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="19.6640625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="11.5546875" style="3" customWidth="1"/>
     <col min="4" max="4" width="9" style="3" customWidth="1"/>
-    <col min="5" max="5" width="13.5703125" style="8" customWidth="1"/>
+    <col min="5" max="5" width="13.5546875" style="8" customWidth="1"/>
     <col min="6" max="6" width="7" style="4" customWidth="1"/>
-    <col min="7" max="7" width="32.85546875" style="4" customWidth="1"/>
-    <col min="8" max="8" width="16.28515625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="8.7109375" style="1"/>
+    <col min="7" max="7" width="32.88671875" style="4" customWidth="1"/>
+    <col min="8" max="8" width="16.33203125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="14.6640625" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="8.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" s="10" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:8" s="10" customFormat="1" ht="21.95" customHeight="1">
       <c r="B1" s="11" t="s">
         <v>2</v>
       </c>
@@ -1212,7 +1201,7 @@
       <c r="D1" s="12"/>
       <c r="E1" s="13"/>
     </row>
-    <row r="2" spans="2:8" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:8" ht="21.95" customHeight="1">
       <c r="B2" s="20" t="s">
         <v>18</v>
       </c>
@@ -1235,7 +1224,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="2:8" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:8" ht="21.95" customHeight="1">
       <c r="B3" s="5" t="s">
         <v>19</v>
       </c>
@@ -1257,7 +1246,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="2:8" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:8" ht="21.95" customHeight="1">
       <c r="B4" s="5" t="s">
         <v>21</v>
       </c>
@@ -1279,7 +1268,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="2:8" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:8" ht="21.95" customHeight="1">
       <c r="B5" s="5" t="s">
         <v>23</v>
       </c>
@@ -1301,7 +1290,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="6" spans="2:8" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:8" ht="36" customHeight="1">
       <c r="B6" s="2" t="s">
         <v>26</v>
       </c>
@@ -1317,7 +1306,7 @@
       </c>
       <c r="G6" s="2"/>
     </row>
-    <row r="7" spans="2:8" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:8" ht="21.95" customHeight="1">
       <c r="B7" s="2" t="s">
         <v>24</v>
       </c>
@@ -1333,7 +1322,7 @@
       </c>
       <c r="G7" s="2"/>
     </row>
-    <row r="8" spans="2:8" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:8" ht="33.950000000000003" customHeight="1">
       <c r="B8" s="2" t="s">
         <v>27</v>
       </c>
@@ -1349,7 +1338,7 @@
       </c>
       <c r="G8" s="2"/>
     </row>
-    <row r="9" spans="2:8" ht="43" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:8" ht="42.95" customHeight="1">
       <c r="B9" s="2" t="s">
         <v>37</v>
       </c>
@@ -1365,7 +1354,7 @@
       </c>
       <c r="G9" s="2"/>
     </row>
-    <row r="10" spans="2:8" ht="37" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:8" ht="36.950000000000003" customHeight="1">
       <c r="B10" s="2" t="s">
         <v>25</v>
       </c>
@@ -1381,7 +1370,7 @@
       </c>
       <c r="G10" s="2"/>
     </row>
-    <row r="11" spans="2:8" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:8" ht="39.950000000000003" customHeight="1">
       <c r="B11" s="2" t="s">
         <v>28</v>
       </c>
@@ -1397,7 +1386,7 @@
       </c>
       <c r="G11" s="2"/>
     </row>
-    <row r="12" spans="2:8" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:8" ht="39.950000000000003" customHeight="1">
       <c r="B12" s="2" t="s">
         <v>38</v>
       </c>
@@ -1413,7 +1402,7 @@
       </c>
       <c r="G12" s="2"/>
     </row>
-    <row r="13" spans="2:8" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:8" ht="35.1" customHeight="1">
       <c r="B13" s="2" t="s">
         <v>29</v>
       </c>
@@ -1429,7 +1418,7 @@
       </c>
       <c r="G13" s="2"/>
     </row>
-    <row r="14" spans="2:8" ht="38" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:8" ht="38.1" customHeight="1">
       <c r="B14" s="2" t="s">
         <v>30</v>
       </c>
@@ -1445,7 +1434,7 @@
       </c>
       <c r="G14" s="2"/>
     </row>
-    <row r="15" spans="2:8" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:8" ht="33" customHeight="1">
       <c r="B15" s="2" t="s">
         <v>31</v>
       </c>
@@ -1461,7 +1450,7 @@
       </c>
       <c r="G15" s="2"/>
     </row>
-    <row r="16" spans="2:8" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:8" ht="50.1" customHeight="1">
       <c r="B16" s="2" t="s">
         <v>32</v>
       </c>
@@ -1477,7 +1466,7 @@
       </c>
       <c r="G16" s="2"/>
     </row>
-    <row r="17" spans="2:8" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:8" ht="30.95" customHeight="1">
       <c r="B17" s="2" t="s">
         <v>33</v>
       </c>
@@ -1499,7 +1488,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="18" spans="2:8" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:8" ht="33" customHeight="1">
       <c r="B18" s="2" t="s">
         <v>34</v>
       </c>
@@ -1515,7 +1504,7 @@
       </c>
       <c r="G18" s="2"/>
     </row>
-    <row r="19" spans="2:8" ht="48" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:8" ht="48" customHeight="1">
       <c r="B19" s="2" t="s">
         <v>35</v>
       </c>
@@ -1531,7 +1520,7 @@
       </c>
       <c r="G19" s="2"/>
     </row>
-    <row r="20" spans="2:8" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:8" ht="33" customHeight="1">
       <c r="B20" s="2" t="s">
         <v>20</v>
       </c>
@@ -1553,7 +1542,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="21" spans="2:8" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:8" ht="33" customHeight="1">
       <c r="B21" s="2" t="s">
         <v>36</v>
       </c>
@@ -1657,24 +1646,24 @@
   </sheetPr>
   <dimension ref="B1:G21"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
       <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="33" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="33" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="2.42578125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="9.42578125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="14.7109375" style="3" customWidth="1"/>
-    <col min="4" max="4" width="12.5703125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="6.5703125" style="8" customWidth="1"/>
-    <col min="6" max="6" width="28.28515625" style="4" customWidth="1"/>
-    <col min="7" max="7" width="18.5703125" style="4" customWidth="1"/>
-    <col min="8" max="8" width="2.42578125" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="8.7109375" style="1"/>
+    <col min="1" max="1" width="2.44140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.44140625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="14.6640625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="12.5546875" style="3" customWidth="1"/>
+    <col min="5" max="5" width="6.5546875" style="8" customWidth="1"/>
+    <col min="6" max="6" width="28.33203125" style="4" customWidth="1"/>
+    <col min="7" max="7" width="18.5546875" style="4" customWidth="1"/>
+    <col min="8" max="8" width="2.44140625" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" s="10" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:7" s="10" customFormat="1" ht="21.95" customHeight="1">
       <c r="B1" s="11" t="s">
         <v>2</v>
       </c>
@@ -1682,7 +1671,7 @@
       <c r="D1" s="12"/>
       <c r="E1" s="13"/>
     </row>
-    <row r="2" spans="2:7" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:7" ht="21.95" customHeight="1">
       <c r="B2" s="14" t="s">
         <v>4</v>
       </c>
@@ -1702,7 +1691,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="2:7" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:7" ht="21.95" customHeight="1">
       <c r="B3" s="18">
         <v>1</v>
       </c>
@@ -1710,20 +1699,18 @@
         <v>1</v>
       </c>
       <c r="D3" s="7">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E3" s="6">
         <f>--(Table13[[#This Row],[% COMPLETE]]&gt;=1)</f>
-        <v>0</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>48</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="F3" s="5"/>
       <c r="G3" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="2:7" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:7" ht="21.95" customHeight="1">
       <c r="B4" s="18">
         <v>2</v>
       </c>
@@ -1731,20 +1718,18 @@
         <v>1</v>
       </c>
       <c r="D4" s="7">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="E4" s="6">
         <f>--(Table13[[#This Row],[% COMPLETE]]&gt;=1)</f>
-        <v>0</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>47</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="F4" s="5"/>
       <c r="G4" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="5" spans="2:7" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:7" ht="21.95" customHeight="1">
       <c r="B5" s="18">
         <v>3</v>
       </c>
@@ -1752,18 +1737,18 @@
         <v>1</v>
       </c>
       <c r="D5" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5" s="9">
         <f>--(Table13[[#This Row],[% COMPLETE]]&gt;=1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="6" spans="2:7" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:7" ht="21.95" customHeight="1">
       <c r="B6" s="19">
         <v>4</v>
       </c>
@@ -1778,7 +1763,7 @@
       <c r="F6" s="2"/>
       <c r="G6" s="1"/>
     </row>
-    <row r="7" spans="2:7" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:7" ht="21.95" customHeight="1">
       <c r="B7" s="19">
         <v>5</v>
       </c>
@@ -1793,7 +1778,7 @@
       <c r="F7" s="2"/>
       <c r="G7" s="1"/>
     </row>
-    <row r="8" spans="2:7" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:7" ht="21.95" customHeight="1">
       <c r="B8" s="19">
         <v>6</v>
       </c>
@@ -1808,7 +1793,7 @@
       <c r="F8" s="2"/>
       <c r="G8" s="1"/>
     </row>
-    <row r="9" spans="2:7" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:7" ht="21.95" customHeight="1">
       <c r="B9" s="19">
         <v>7</v>
       </c>
@@ -1823,7 +1808,7 @@
       <c r="F9" s="2"/>
       <c r="G9" s="1"/>
     </row>
-    <row r="10" spans="2:7" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:7" ht="21.95" customHeight="1">
       <c r="B10" s="19">
         <v>8</v>
       </c>
@@ -1838,7 +1823,7 @@
       <c r="F10" s="2"/>
       <c r="G10" s="1"/>
     </row>
-    <row r="11" spans="2:7" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:7" ht="21.95" customHeight="1">
       <c r="B11" s="19">
         <v>9</v>
       </c>
@@ -1853,7 +1838,7 @@
       <c r="F11" s="2"/>
       <c r="G11" s="1"/>
     </row>
-    <row r="12" spans="2:7" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:7" ht="21.95" customHeight="1">
       <c r="B12" s="19">
         <v>10</v>
       </c>
@@ -1868,7 +1853,7 @@
       <c r="F12" s="2"/>
       <c r="G12" s="1"/>
     </row>
-    <row r="13" spans="2:7" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:7" ht="21.95" customHeight="1">
       <c r="B13" s="19">
         <v>11</v>
       </c>
@@ -1883,7 +1868,7 @@
       <c r="F13" s="2"/>
       <c r="G13" s="1"/>
     </row>
-    <row r="14" spans="2:7" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:7" ht="21.95" customHeight="1">
       <c r="B14" s="19">
         <v>12</v>
       </c>
@@ -1897,7 +1882,7 @@
       </c>
       <c r="F14" s="2"/>
     </row>
-    <row r="15" spans="2:7" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:7" ht="21.95" customHeight="1">
       <c r="B15" s="19">
         <v>13</v>
       </c>
@@ -1911,7 +1896,7 @@
       </c>
       <c r="F15" s="2"/>
     </row>
-    <row r="16" spans="2:7" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:7" ht="21.95" customHeight="1">
       <c r="B16" s="19">
         <v>14</v>
       </c>
@@ -1925,7 +1910,7 @@
       </c>
       <c r="F16" s="2"/>
     </row>
-    <row r="17" spans="2:7" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:7" ht="21.95" customHeight="1">
       <c r="B17" s="19">
         <v>15</v>
       </c>
@@ -1933,18 +1918,18 @@
         <v>1</v>
       </c>
       <c r="D17" s="22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E17" s="17">
         <f>--(Table13[[#This Row],[% COMPLETE]]&gt;=1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F17" s="2"/>
       <c r="G17" s="4" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="18" spans="2:7" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:7" ht="21.95" customHeight="1">
       <c r="B18" s="19">
         <v>16</v>
       </c>
@@ -1958,7 +1943,7 @@
       </c>
       <c r="F18" s="2"/>
     </row>
-    <row r="19" spans="2:7" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:7" ht="21.95" customHeight="1">
       <c r="B19" s="19">
         <v>17</v>
       </c>
@@ -1972,7 +1957,7 @@
       </c>
       <c r="F19" s="2"/>
     </row>
-    <row r="20" spans="2:7" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:7" ht="21.95" customHeight="1">
       <c r="B20" s="19">
         <v>18</v>
       </c>
@@ -1980,20 +1965,18 @@
         <v>1</v>
       </c>
       <c r="D20" s="22">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E20" s="17">
         <f>--(Table13[[#This Row],[% COMPLETE]]&gt;=1)</f>
-        <v>0</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>48</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="F20" s="2"/>
       <c r="G20" s="4" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="21" spans="2:7" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:7" ht="21.95" customHeight="1">
       <c r="B21" s="19">
         <v>19</v>
       </c>
@@ -2001,15 +1984,13 @@
         <v>1</v>
       </c>
       <c r="D21" s="22">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E21" s="17">
         <f>--(Table13[[#This Row],[% COMPLETE]]&gt;=1)</f>
-        <v>0</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>48</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="F21" s="2"/>
       <c r="G21" s="4" t="s">
         <v>45</v>
       </c>
@@ -2100,19 +2081,19 @@
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="33" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="33" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="2.42578125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="26.28515625" style="2" customWidth="1"/>
-    <col min="3" max="4" width="14.7109375" style="3" customWidth="1"/>
-    <col min="5" max="5" width="39.140625" style="8" customWidth="1"/>
-    <col min="6" max="6" width="18.5703125" style="4" customWidth="1"/>
-    <col min="7" max="7" width="24.140625" style="4" customWidth="1"/>
-    <col min="8" max="8" width="2.42578125" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="8.7109375" style="1"/>
+    <col min="1" max="1" width="2.44140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="26.33203125" style="2" customWidth="1"/>
+    <col min="3" max="4" width="14.6640625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="39.109375" style="8" customWidth="1"/>
+    <col min="6" max="6" width="18.5546875" style="4" customWidth="1"/>
+    <col min="7" max="7" width="24.109375" style="4" customWidth="1"/>
+    <col min="8" max="8" width="2.44140625" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" s="10" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:7" s="10" customFormat="1" ht="21.95" customHeight="1">
       <c r="B1" s="11" t="s">
         <v>2</v>
       </c>
@@ -2120,7 +2101,7 @@
       <c r="D1" s="12"/>
       <c r="E1" s="13"/>
     </row>
-    <row r="2" spans="2:7" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:7" ht="21.95" customHeight="1">
       <c r="B2" s="14" t="s">
         <v>6</v>
       </c>
@@ -2136,7 +2117,7 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="2:7" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:7" ht="21.95" customHeight="1">
       <c r="B3" s="5" t="s">
         <v>7</v>
       </c>
@@ -2151,7 +2132,7 @@
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="2:7" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:7" ht="21.95" customHeight="1">
       <c r="B4" s="5" t="s">
         <v>9</v>
       </c>
@@ -2166,7 +2147,7 @@
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
     </row>
-    <row r="5" spans="2:7" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:7" ht="21.95" customHeight="1">
       <c r="B5" s="5" t="s">
         <v>8</v>
       </c>
@@ -2181,9 +2162,9 @@
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="2:7" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:7" ht="21.95" customHeight="1">
       <c r="B6" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C6" s="8">
         <v>1</v>
@@ -2196,9 +2177,9 @@
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
     </row>
-    <row r="7" spans="2:7" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:7" ht="21.95" customHeight="1">
       <c r="B7" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C7" s="8">
         <v>0</v>
@@ -2211,7 +2192,7 @@
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
     </row>
-    <row r="8" spans="2:7" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:7" ht="21.95" customHeight="1">
       <c r="C8" s="8"/>
       <c r="D8" s="9">
         <f>--(Table145[[#This Row],[% COMPLETE]]&gt;=1)</f>
@@ -2221,7 +2202,7 @@
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
     </row>
-    <row r="9" spans="2:7" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:7" ht="21.95" customHeight="1">
       <c r="C9" s="8"/>
       <c r="D9" s="9">
         <f>--(Table145[[#This Row],[% COMPLETE]]&gt;=1)</f>
@@ -2231,7 +2212,7 @@
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
     </row>
-    <row r="10" spans="2:7" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:7" ht="21.95" customHeight="1">
       <c r="C10" s="8"/>
       <c r="D10" s="9">
         <f>--(Table145[[#This Row],[% COMPLETE]]&gt;=1)</f>
@@ -2241,7 +2222,7 @@
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
     </row>
-    <row r="11" spans="2:7" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:7" ht="21.95" customHeight="1">
       <c r="C11" s="8"/>
       <c r="D11" s="9">
         <f>--(Table145[[#This Row],[% COMPLETE]]&gt;=1)</f>
@@ -2251,7 +2232,7 @@
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
     </row>
-    <row r="12" spans="2:7" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:7" ht="21.95" customHeight="1">
       <c r="C12" s="8"/>
       <c r="D12" s="9">
         <f>--(Table145[[#This Row],[% COMPLETE]]&gt;=1)</f>
@@ -2261,7 +2242,7 @@
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
     </row>
-    <row r="13" spans="2:7" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:7" ht="21.95" customHeight="1">
       <c r="C13" s="8"/>
       <c r="D13" s="9">
         <f>--(Table145[[#This Row],[% COMPLETE]]&gt;=1)</f>

--- a/Progress-Report.xlsx
+++ b/Progress-Report.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26408"/>
   <workbookPr codeName="ThisWorkbook" hidePivotFieldList="1"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/megavancena/HOM-Documents/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="17085" yWindow="465" windowWidth="19440" windowHeight="13740" activeTab="2"/>
+    <workbookView xWindow="2980" yWindow="460" windowWidth="23800" windowHeight="17920" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="User Interface" sheetId="5" r:id="rId1"/>
@@ -18,12 +23,12 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="2">'Test Cases'!$2:$2</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'User Interface'!$2:$2</definedName>
   </definedNames>
-  <calcPr calcId="145621" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -31,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="55">
   <si>
     <t>DONE</t>
   </si>
@@ -178,13 +183,31 @@
   </si>
   <si>
     <t xml:space="preserve">Iteration 2 Class Diagram </t>
+  </si>
+  <si>
+    <t>No functionality</t>
+  </si>
+  <si>
+    <t>Ask Miguel / Daniel?, Fix layout, match design with other pages</t>
+  </si>
+  <si>
+    <t>Daniel Garcia</t>
+  </si>
+  <si>
+    <t>Kenywil Tiu</t>
+  </si>
+  <si>
+    <t>Margaret Avancena</t>
+  </si>
+  <si>
+    <t>Rheygine Medel</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="13"/>
       <color theme="4" tint="0.39991454817346722"/>
@@ -279,7 +302,7 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -354,6 +377,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -870,7 +896,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -885,22 +911,22 @@
   <dimension ref="B1:G29"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.1" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="14" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="2.44140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="19.6640625" style="2" customWidth="1"/>
-    <col min="3" max="4" width="14.6640625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="37.44140625" style="8" customWidth="1"/>
+    <col min="1" max="1" width="2.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="19.7109375" style="2" customWidth="1"/>
+    <col min="3" max="4" width="14.7109375" style="3" customWidth="1"/>
+    <col min="5" max="5" width="37.42578125" style="8" customWidth="1"/>
     <col min="6" max="6" width="19" style="4" customWidth="1"/>
-    <col min="7" max="7" width="16.5546875" style="4" customWidth="1"/>
-    <col min="8" max="8" width="15.5546875" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="8.6640625" style="1"/>
+    <col min="7" max="7" width="16.5703125" style="4" customWidth="1"/>
+    <col min="8" max="8" width="15.5703125" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" s="10" customFormat="1" ht="21.95" customHeight="1">
+    <row r="1" spans="2:7" s="10" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B1" s="11" t="s">
         <v>2</v>
       </c>
@@ -908,7 +934,7 @@
       <c r="D1" s="12"/>
       <c r="E1" s="13"/>
     </row>
-    <row r="2" spans="2:7" ht="21.95" customHeight="1">
+    <row r="2" spans="2:7" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="14" t="s">
         <v>5</v>
       </c>
@@ -926,7 +952,7 @@
       </c>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="2:7" ht="21.95" customHeight="1">
+    <row r="3" spans="2:7" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="5" t="s">
         <v>10</v>
       </c>
@@ -938,10 +964,12 @@
         <v>1</v>
       </c>
       <c r="E3" s="5"/>
-      <c r="F3" s="1"/>
+      <c r="F3" s="1" t="s">
+        <v>53</v>
+      </c>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="2:7" ht="21.95" customHeight="1">
+    <row r="4" spans="2:7" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="5" t="s">
         <v>11</v>
       </c>
@@ -955,10 +983,12 @@
       <c r="E4" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="1"/>
+      <c r="F4" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="G4" s="1"/>
     </row>
-    <row r="5" spans="2:7" ht="21.95" customHeight="1">
+    <row r="5" spans="2:7" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="5" t="s">
         <v>12</v>
       </c>
@@ -973,54 +1003,60 @@
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="2:7" ht="21.95" customHeight="1">
+    <row r="6" spans="2:7" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C6" s="8">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="D6" s="9">
         <f>--(Table14[[#This Row],[% COMPLETE]]&gt;=1)</f>
-        <v>0</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F6" s="1"/>
+        <v>1</v>
+      </c>
+      <c r="E6" s="2"/>
+      <c r="F6" s="1" t="s">
+        <v>52</v>
+      </c>
       <c r="G6" s="1"/>
     </row>
-    <row r="7" spans="2:7" ht="21.95" customHeight="1">
+    <row r="7" spans="2:7" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="2" t="s">
         <v>14</v>
       </c>
       <c r="C7" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7" s="9">
         <f>--(Table14[[#This Row],[% COMPLETE]]&gt;=1)</f>
-        <v>0</v>
-      </c>
-      <c r="E7" s="2"/>
-      <c r="F7" s="1"/>
+        <v>1</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>53</v>
+      </c>
       <c r="G7" s="1"/>
     </row>
-    <row r="8" spans="2:7" ht="21.95" customHeight="1">
+    <row r="8" spans="2:7" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C8" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D8" s="9">
         <f>--(Table14[[#This Row],[% COMPLETE]]&gt;=1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8" s="2"/>
-      <c r="F8" s="1"/>
+      <c r="F8" s="1" t="s">
+        <v>54</v>
+      </c>
       <c r="G8" s="1"/>
     </row>
-    <row r="9" spans="2:7" ht="21.95" customHeight="1">
+    <row r="9" spans="2:7" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="2" t="s">
         <v>16</v>
       </c>
@@ -1032,12 +1068,14 @@
         <v>0</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F9" s="1"/>
+        <v>50</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="G9" s="1"/>
     </row>
-    <row r="10" spans="2:7" ht="21.95" customHeight="1">
+    <row r="10" spans="2:7" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C10" s="8"/>
       <c r="D10" s="9">
         <f>--(Table14[[#This Row],[% COMPLETE]]&gt;=1)</f>
@@ -1047,7 +1085,7 @@
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
     </row>
-    <row r="11" spans="2:7" ht="21.95" customHeight="1">
+    <row r="11" spans="2:7" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C11" s="8"/>
       <c r="D11" s="9">
         <f>--(Table14[[#This Row],[% COMPLETE]]&gt;=1)</f>
@@ -1057,7 +1095,7 @@
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
     </row>
-    <row r="12" spans="2:7" ht="21.95" customHeight="1">
+    <row r="12" spans="2:7" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C12" s="8"/>
       <c r="D12" s="9">
         <f>--(Table14[[#This Row],[% COMPLETE]]&gt;=1)</f>
@@ -1067,7 +1105,7 @@
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
     </row>
-    <row r="13" spans="2:7" ht="21.95" customHeight="1">
+    <row r="13" spans="2:7" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C13" s="8"/>
       <c r="D13" s="9">
         <f>--(Table14[[#This Row],[% COMPLETE]]&gt;=1)</f>
@@ -1077,22 +1115,22 @@
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
     </row>
-    <row r="14" spans="2:7" ht="21.95" customHeight="1"/>
-    <row r="15" spans="2:7" ht="21.95" customHeight="1"/>
-    <row r="16" spans="2:7" ht="21.95" customHeight="1"/>
-    <row r="17" ht="21.95" customHeight="1"/>
-    <row r="18" ht="21.95" customHeight="1"/>
-    <row r="19" ht="21.95" customHeight="1"/>
-    <row r="20" ht="21.95" customHeight="1"/>
-    <row r="21" ht="21.95" customHeight="1"/>
-    <row r="22" ht="21.95" customHeight="1"/>
-    <row r="23" ht="21.95" customHeight="1"/>
-    <row r="24" ht="21.95" customHeight="1"/>
-    <row r="25" ht="21.95" customHeight="1"/>
-    <row r="26" ht="21.95" customHeight="1"/>
-    <row r="27" ht="21.95" customHeight="1"/>
-    <row r="28" ht="21.95" customHeight="1"/>
-    <row r="29" ht="21.95" customHeight="1"/>
+    <row r="14" spans="2:7" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="15" spans="2:7" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="16" spans="2:7" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="17" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="18" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="19" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="20" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="21" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="22" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="23" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="24" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="25" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="26" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="27" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="28" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="29" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <conditionalFormatting sqref="C3:C13">
     <cfRule type="dataBar" priority="1">
@@ -1175,25 +1213,25 @@
   </sheetPr>
   <dimension ref="B1:H21"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A11" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView showGridLines="0" topLeftCell="A8" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14:H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="33" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="33" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="2.44140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="19.6640625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="11.5546875" style="3" customWidth="1"/>
+    <col min="1" max="1" width="2.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="19.7109375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" style="3" customWidth="1"/>
     <col min="4" max="4" width="9" style="3" customWidth="1"/>
-    <col min="5" max="5" width="13.5546875" style="8" customWidth="1"/>
+    <col min="5" max="5" width="13.5703125" style="8" customWidth="1"/>
     <col min="6" max="6" width="7" style="4" customWidth="1"/>
-    <col min="7" max="7" width="32.88671875" style="4" customWidth="1"/>
-    <col min="8" max="8" width="16.33203125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="14.6640625" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="8.6640625" style="1"/>
+    <col min="7" max="7" width="32.85546875" style="4" customWidth="1"/>
+    <col min="8" max="8" width="16.28515625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="8.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" s="10" customFormat="1" ht="21.95" customHeight="1">
+    <row r="1" spans="2:8" s="10" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B1" s="11" t="s">
         <v>2</v>
       </c>
@@ -1201,7 +1239,7 @@
       <c r="D1" s="12"/>
       <c r="E1" s="13"/>
     </row>
-    <row r="2" spans="2:8" ht="21.95" customHeight="1">
+    <row r="2" spans="2:8" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="20" t="s">
         <v>18</v>
       </c>
@@ -1224,7 +1262,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="2:8" ht="21.95" customHeight="1">
+    <row r="3" spans="2:8" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="5" t="s">
         <v>19</v>
       </c>
@@ -1246,7 +1284,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="2:8" ht="21.95" customHeight="1">
+    <row r="4" spans="2:8" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="5" t="s">
         <v>21</v>
       </c>
@@ -1268,7 +1306,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="2:8" ht="21.95" customHeight="1">
+    <row r="5" spans="2:8" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="5" t="s">
         <v>23</v>
       </c>
@@ -1290,7 +1328,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="6" spans="2:8" ht="36" customHeight="1">
+    <row r="6" spans="2:8" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="2" t="s">
         <v>26</v>
       </c>
@@ -1306,7 +1344,7 @@
       </c>
       <c r="G6" s="2"/>
     </row>
-    <row r="7" spans="2:8" ht="21.95" customHeight="1">
+    <row r="7" spans="2:8" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="2" t="s">
         <v>24</v>
       </c>
@@ -1322,7 +1360,7 @@
       </c>
       <c r="G7" s="2"/>
     </row>
-    <row r="8" spans="2:8" ht="33.950000000000003" customHeight="1">
+    <row r="8" spans="2:8" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="2" t="s">
         <v>27</v>
       </c>
@@ -1338,7 +1376,7 @@
       </c>
       <c r="G8" s="2"/>
     </row>
-    <row r="9" spans="2:8" ht="42.95" customHeight="1">
+    <row r="9" spans="2:8" ht="43" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="2" t="s">
         <v>37</v>
       </c>
@@ -1354,7 +1392,7 @@
       </c>
       <c r="G9" s="2"/>
     </row>
-    <row r="10" spans="2:8" ht="36.950000000000003" customHeight="1">
+    <row r="10" spans="2:8" ht="37" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="2" t="s">
         <v>25</v>
       </c>
@@ -1370,7 +1408,7 @@
       </c>
       <c r="G10" s="2"/>
     </row>
-    <row r="11" spans="2:8" ht="39.950000000000003" customHeight="1">
+    <row r="11" spans="2:8" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="2" t="s">
         <v>28</v>
       </c>
@@ -1386,7 +1424,7 @@
       </c>
       <c r="G11" s="2"/>
     </row>
-    <row r="12" spans="2:8" ht="39.950000000000003" customHeight="1">
+    <row r="12" spans="2:8" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="2" t="s">
         <v>38</v>
       </c>
@@ -1396,13 +1434,16 @@
       <c r="D12" s="24">
         <v>2</v>
       </c>
+      <c r="E12" s="8">
+        <v>0</v>
+      </c>
       <c r="F12" s="9">
         <f>--(Table1[[#This Row],[% COMPLETE]]&gt;=1)</f>
         <v>0</v>
       </c>
       <c r="G12" s="2"/>
     </row>
-    <row r="13" spans="2:8" ht="35.1" customHeight="1">
+    <row r="13" spans="2:8" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="2" t="s">
         <v>29</v>
       </c>
@@ -1418,7 +1459,7 @@
       </c>
       <c r="G13" s="2"/>
     </row>
-    <row r="14" spans="2:8" ht="38.1" customHeight="1">
+    <row r="14" spans="2:8" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="2" t="s">
         <v>30</v>
       </c>
@@ -1428,13 +1469,19 @@
       <c r="D14" s="24">
         <v>2</v>
       </c>
+      <c r="E14" s="8">
+        <v>1</v>
+      </c>
       <c r="F14" s="9">
         <f>--(Table1[[#This Row],[% COMPLETE]]&gt;=1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G14" s="2"/>
-    </row>
-    <row r="15" spans="2:8" ht="33" customHeight="1">
+      <c r="H14" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="2" t="s">
         <v>31</v>
       </c>
@@ -1444,13 +1491,19 @@
       <c r="D15" s="24">
         <v>2</v>
       </c>
+      <c r="E15" s="8">
+        <v>1</v>
+      </c>
       <c r="F15" s="9">
         <f>--(Table1[[#This Row],[% COMPLETE]]&gt;=1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G15" s="2"/>
-    </row>
-    <row r="16" spans="2:8" ht="50.1" customHeight="1">
+      <c r="H15" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="2" t="s">
         <v>32</v>
       </c>
@@ -1460,13 +1513,19 @@
       <c r="D16" s="24">
         <v>2</v>
       </c>
+      <c r="E16" s="8">
+        <v>1</v>
+      </c>
       <c r="F16" s="9">
         <f>--(Table1[[#This Row],[% COMPLETE]]&gt;=1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G16" s="2"/>
-    </row>
-    <row r="17" spans="2:8" ht="30.95" customHeight="1">
+      <c r="H16" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" ht="31" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="2" t="s">
         <v>33</v>
       </c>
@@ -1488,7 +1547,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="18" spans="2:8" ht="33" customHeight="1">
+    <row r="18" spans="2:8" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="2" t="s">
         <v>34</v>
       </c>
@@ -1504,7 +1563,7 @@
       </c>
       <c r="G18" s="2"/>
     </row>
-    <row r="19" spans="2:8" ht="48" customHeight="1">
+    <row r="19" spans="2:8" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="2" t="s">
         <v>35</v>
       </c>
@@ -1520,7 +1579,7 @@
       </c>
       <c r="G19" s="2"/>
     </row>
-    <row r="20" spans="2:8" ht="33" customHeight="1">
+    <row r="20" spans="2:8" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="2" t="s">
         <v>20</v>
       </c>
@@ -1542,7 +1601,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="21" spans="2:8" ht="33" customHeight="1">
+    <row r="21" spans="2:8" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="2" t="s">
         <v>36</v>
       </c>
@@ -1646,24 +1705,24 @@
   </sheetPr>
   <dimension ref="B1:G21"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView showGridLines="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="33" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="33" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="2.44140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="9.44140625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="14.6640625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="12.5546875" style="3" customWidth="1"/>
-    <col min="5" max="5" width="6.5546875" style="8" customWidth="1"/>
-    <col min="6" max="6" width="28.33203125" style="4" customWidth="1"/>
-    <col min="7" max="7" width="18.5546875" style="4" customWidth="1"/>
-    <col min="8" max="8" width="2.44140625" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="8.6640625" style="1"/>
+    <col min="1" max="1" width="2.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.42578125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="12.5703125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="6.5703125" style="8" customWidth="1"/>
+    <col min="6" max="6" width="28.28515625" style="4" customWidth="1"/>
+    <col min="7" max="7" width="18.5703125" style="4" customWidth="1"/>
+    <col min="8" max="8" width="2.42578125" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" s="10" customFormat="1" ht="21.95" customHeight="1">
+    <row r="1" spans="2:7" s="10" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B1" s="11" t="s">
         <v>2</v>
       </c>
@@ -1671,7 +1730,7 @@
       <c r="D1" s="12"/>
       <c r="E1" s="13"/>
     </row>
-    <row r="2" spans="2:7" ht="21.95" customHeight="1">
+    <row r="2" spans="2:7" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="14" t="s">
         <v>4</v>
       </c>
@@ -1691,7 +1750,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="2:7" ht="21.95" customHeight="1">
+    <row r="3" spans="2:7" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="18">
         <v>1</v>
       </c>
@@ -1710,7 +1769,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="2:7" ht="21.95" customHeight="1">
+    <row r="4" spans="2:7" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="18">
         <v>2</v>
       </c>
@@ -1729,7 +1788,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="5" spans="2:7" ht="21.95" customHeight="1">
+    <row r="5" spans="2:7" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="18">
         <v>3</v>
       </c>
@@ -1748,7 +1807,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="6" spans="2:7" ht="21.95" customHeight="1">
+    <row r="6" spans="2:7" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="19">
         <v>4</v>
       </c>
@@ -1763,7 +1822,7 @@
       <c r="F6" s="2"/>
       <c r="G6" s="1"/>
     </row>
-    <row r="7" spans="2:7" ht="21.95" customHeight="1">
+    <row r="7" spans="2:7" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="19">
         <v>5</v>
       </c>
@@ -1778,7 +1837,7 @@
       <c r="F7" s="2"/>
       <c r="G7" s="1"/>
     </row>
-    <row r="8" spans="2:7" ht="21.95" customHeight="1">
+    <row r="8" spans="2:7" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="19">
         <v>6</v>
       </c>
@@ -1793,7 +1852,7 @@
       <c r="F8" s="2"/>
       <c r="G8" s="1"/>
     </row>
-    <row r="9" spans="2:7" ht="21.95" customHeight="1">
+    <row r="9" spans="2:7" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="19">
         <v>7</v>
       </c>
@@ -1808,7 +1867,7 @@
       <c r="F9" s="2"/>
       <c r="G9" s="1"/>
     </row>
-    <row r="10" spans="2:7" ht="21.95" customHeight="1">
+    <row r="10" spans="2:7" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="19">
         <v>8</v>
       </c>
@@ -1823,7 +1882,7 @@
       <c r="F10" s="2"/>
       <c r="G10" s="1"/>
     </row>
-    <row r="11" spans="2:7" ht="21.95" customHeight="1">
+    <row r="11" spans="2:7" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="19">
         <v>9</v>
       </c>
@@ -1838,7 +1897,7 @@
       <c r="F11" s="2"/>
       <c r="G11" s="1"/>
     </row>
-    <row r="12" spans="2:7" ht="21.95" customHeight="1">
+    <row r="12" spans="2:7" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="19">
         <v>10</v>
       </c>
@@ -1853,7 +1912,7 @@
       <c r="F12" s="2"/>
       <c r="G12" s="1"/>
     </row>
-    <row r="13" spans="2:7" ht="21.95" customHeight="1">
+    <row r="13" spans="2:7" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="19">
         <v>11</v>
       </c>
@@ -1868,49 +1927,64 @@
       <c r="F13" s="2"/>
       <c r="G13" s="1"/>
     </row>
-    <row r="14" spans="2:7" ht="21.95" customHeight="1">
+    <row r="14" spans="2:7" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="19">
         <v>12</v>
       </c>
       <c r="C14" s="24">
         <v>2</v>
       </c>
-      <c r="D14" s="16"/>
+      <c r="D14" s="25">
+        <v>1</v>
+      </c>
       <c r="E14" s="17">
         <f>--(Table13[[#This Row],[% COMPLETE]]&gt;=1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F14" s="2"/>
-    </row>
-    <row r="15" spans="2:7" ht="21.95" customHeight="1">
+      <c r="G14" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="19">
         <v>13</v>
       </c>
       <c r="C15" s="24">
         <v>2</v>
       </c>
-      <c r="D15" s="16"/>
+      <c r="D15" s="25">
+        <v>1</v>
+      </c>
       <c r="E15" s="17">
         <f>--(Table13[[#This Row],[% COMPLETE]]&gt;=1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F15" s="2"/>
-    </row>
-    <row r="16" spans="2:7" ht="21.95" customHeight="1">
+      <c r="G15" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="19">
         <v>14</v>
       </c>
       <c r="C16" s="24">
         <v>2</v>
       </c>
-      <c r="D16" s="16"/>
+      <c r="D16" s="25">
+        <v>1</v>
+      </c>
       <c r="E16" s="17">
         <f>--(Table13[[#This Row],[% COMPLETE]]&gt;=1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F16" s="2"/>
-    </row>
-    <row r="17" spans="2:7" ht="21.95" customHeight="1">
+      <c r="G16" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="19">
         <v>15</v>
       </c>
@@ -1929,7 +2003,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="18" spans="2:7" ht="21.95" customHeight="1">
+    <row r="18" spans="2:7" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="19">
         <v>16</v>
       </c>
@@ -1943,7 +2017,7 @@
       </c>
       <c r="F18" s="2"/>
     </row>
-    <row r="19" spans="2:7" ht="21.95" customHeight="1">
+    <row r="19" spans="2:7" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="19">
         <v>17</v>
       </c>
@@ -1957,7 +2031,7 @@
       </c>
       <c r="F19" s="2"/>
     </row>
-    <row r="20" spans="2:7" ht="21.95" customHeight="1">
+    <row r="20" spans="2:7" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="19">
         <v>18</v>
       </c>
@@ -1976,7 +2050,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="21" spans="2:7" ht="21.95" customHeight="1">
+    <row r="21" spans="2:7" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="19">
         <v>19</v>
       </c>
@@ -2077,23 +2151,23 @@
   </sheetPr>
   <dimension ref="B1:G13"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="33" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="33" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="2.44140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="26.33203125" style="2" customWidth="1"/>
-    <col min="3" max="4" width="14.6640625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="39.109375" style="8" customWidth="1"/>
-    <col min="6" max="6" width="18.5546875" style="4" customWidth="1"/>
-    <col min="7" max="7" width="24.109375" style="4" customWidth="1"/>
-    <col min="8" max="8" width="2.44140625" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="8.6640625" style="1"/>
+    <col min="1" max="1" width="2.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="26.28515625" style="2" customWidth="1"/>
+    <col min="3" max="4" width="14.7109375" style="3" customWidth="1"/>
+    <col min="5" max="5" width="39.140625" style="8" customWidth="1"/>
+    <col min="6" max="6" width="18.5703125" style="4" customWidth="1"/>
+    <col min="7" max="7" width="24.140625" style="4" customWidth="1"/>
+    <col min="8" max="8" width="2.42578125" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" s="10" customFormat="1" ht="21.95" customHeight="1">
+    <row r="1" spans="2:7" s="10" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B1" s="11" t="s">
         <v>2</v>
       </c>
@@ -2101,7 +2175,7 @@
       <c r="D1" s="12"/>
       <c r="E1" s="13"/>
     </row>
-    <row r="2" spans="2:7" ht="21.95" customHeight="1">
+    <row r="2" spans="2:7" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="14" t="s">
         <v>6</v>
       </c>
@@ -2117,7 +2191,7 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="2:7" ht="21.95" customHeight="1">
+    <row r="3" spans="2:7" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="5" t="s">
         <v>7</v>
       </c>
@@ -2132,7 +2206,7 @@
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="2:7" ht="21.95" customHeight="1">
+    <row r="4" spans="2:7" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="5" t="s">
         <v>9</v>
       </c>
@@ -2147,7 +2221,7 @@
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
     </row>
-    <row r="5" spans="2:7" ht="21.95" customHeight="1">
+    <row r="5" spans="2:7" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="5" t="s">
         <v>8</v>
       </c>
@@ -2162,7 +2236,7 @@
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="2:7" ht="21.95" customHeight="1">
+    <row r="6" spans="2:7" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="2" t="s">
         <v>47</v>
       </c>
@@ -2177,7 +2251,7 @@
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
     </row>
-    <row r="7" spans="2:7" ht="21.95" customHeight="1">
+    <row r="7" spans="2:7" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="2" t="s">
         <v>48</v>
       </c>
@@ -2192,7 +2266,7 @@
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
     </row>
-    <row r="8" spans="2:7" ht="21.95" customHeight="1">
+    <row r="8" spans="2:7" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C8" s="8"/>
       <c r="D8" s="9">
         <f>--(Table145[[#This Row],[% COMPLETE]]&gt;=1)</f>
@@ -2202,7 +2276,7 @@
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
     </row>
-    <row r="9" spans="2:7" ht="21.95" customHeight="1">
+    <row r="9" spans="2:7" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C9" s="8"/>
       <c r="D9" s="9">
         <f>--(Table145[[#This Row],[% COMPLETE]]&gt;=1)</f>
@@ -2212,7 +2286,7 @@
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
     </row>
-    <row r="10" spans="2:7" ht="21.95" customHeight="1">
+    <row r="10" spans="2:7" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C10" s="8"/>
       <c r="D10" s="9">
         <f>--(Table145[[#This Row],[% COMPLETE]]&gt;=1)</f>
@@ -2222,7 +2296,7 @@
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
     </row>
-    <row r="11" spans="2:7" ht="21.95" customHeight="1">
+    <row r="11" spans="2:7" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C11" s="8"/>
       <c r="D11" s="9">
         <f>--(Table145[[#This Row],[% COMPLETE]]&gt;=1)</f>
@@ -2232,7 +2306,7 @@
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
     </row>
-    <row r="12" spans="2:7" ht="21.95" customHeight="1">
+    <row r="12" spans="2:7" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C12" s="8"/>
       <c r="D12" s="9">
         <f>--(Table145[[#This Row],[% COMPLETE]]&gt;=1)</f>
@@ -2242,7 +2316,7 @@
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
     </row>
-    <row r="13" spans="2:7" ht="21.95" customHeight="1">
+    <row r="13" spans="2:7" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C13" s="8"/>
       <c r="D13" s="9">
         <f>--(Table145[[#This Row],[% COMPLETE]]&gt;=1)</f>

--- a/Progress-Report.xlsx
+++ b/Progress-Report.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="54">
   <si>
     <t>DONE</t>
   </si>
@@ -186,9 +186,6 @@
   </si>
   <si>
     <t>No functionality</t>
-  </si>
-  <si>
-    <t>Ask Miguel / Daniel?, Fix layout, match design with other pages</t>
   </si>
   <si>
     <t>Daniel Garcia</t>
@@ -911,7 +908,7 @@
   <dimension ref="B1:G29"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="14" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -965,7 +962,7 @@
       </c>
       <c r="E3" s="5"/>
       <c r="F3" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G3" s="1"/>
     </row>
@@ -984,7 +981,7 @@
         <v>17</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G4" s="1"/>
     </row>
@@ -1016,7 +1013,7 @@
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G6" s="1"/>
     </row>
@@ -1035,7 +1032,7 @@
         <v>49</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G7" s="1"/>
     </row>
@@ -1052,7 +1049,7 @@
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G8" s="1"/>
     </row>
@@ -1061,17 +1058,15 @@
         <v>16</v>
       </c>
       <c r="C9" s="8">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="D9" s="9">
         <f>--(Table14[[#This Row],[% COMPLETE]]&gt;=1)</f>
-        <v>0</v>
-      </c>
-      <c r="E9" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E9" s="2"/>
+      <c r="F9" s="1" t="s">
         <v>50</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>51</v>
       </c>
       <c r="G9" s="1"/>
     </row>
@@ -1213,8 +1208,8 @@
   </sheetPr>
   <dimension ref="B1:H21"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A8" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14:H14"/>
+    <sheetView showGridLines="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="33" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1433,9 +1428,6 @@
       </c>
       <c r="D12" s="24">
         <v>2</v>
-      </c>
-      <c r="E12" s="8">
-        <v>0</v>
       </c>
       <c r="F12" s="9">
         <f>--(Table1[[#This Row],[% COMPLETE]]&gt;=1)</f>
@@ -2151,7 +2143,7 @@
   </sheetPr>
   <dimension ref="B1:G13"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
